--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1989603.689321952</v>
+        <v>1987994.408149794</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8000239.369791896</v>
+        <v>8000239.369791888</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9473057.94026546</v>
+        <v>9473057.940265462</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9879130210783</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>101.2122398443074</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>239.1844414298594</v>
       </c>
       <c r="F11" t="n">
         <v>264.1301170993091</v>
       </c>
       <c r="G11" t="n">
-        <v>269.7464768811127</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>167.9475609641863</v>
+        <v>167.9475609641862</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.233700684801647</v>
+        <v>2.233700684801619</v>
       </c>
       <c r="T11" t="n">
-        <v>68.04769262841239</v>
+        <v>68.04769262841236</v>
       </c>
       <c r="U11" t="n">
-        <v>108.3748977061046</v>
+        <v>30.15003593408199</v>
       </c>
       <c r="V11" t="n">
         <v>185.0063298277326</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>206.4950400750107</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>243.4920100136513</v>
       </c>
     </row>
     <row r="12">
@@ -1449,16 +1449,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>142.3941045302186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>4.699136922236448</v>
+        <v>4.69913692223642</v>
       </c>
       <c r="E12" t="n">
-        <v>14.89915181299864</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>2.323283750981574</v>
+        <v>2.323283750981545</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.62587671097609</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>143.7533427911297</v>
       </c>
       <c r="T12" t="n">
-        <v>194.10392297596</v>
+        <v>51.35799433355769</v>
       </c>
       <c r="U12" t="n">
-        <v>83.09652842683919</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V12" t="n">
-        <v>90.05465850702296</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>108.9490545185173</v>
+        <v>123.0595398509112</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>63.02705656107514</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>62.93676713490203</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>37.08605153953496</v>
       </c>
       <c r="C13" t="n">
-        <v>24.50089245622553</v>
+        <v>24.5008924562255</v>
       </c>
       <c r="D13" t="n">
-        <v>5.869544375810051</v>
+        <v>5.869544375810023</v>
       </c>
       <c r="E13" t="n">
-        <v>3.688034004166866</v>
+        <v>3.688034004166838</v>
       </c>
       <c r="F13" t="n">
-        <v>2.67511938052894</v>
+        <v>2.675119380528912</v>
       </c>
       <c r="G13" t="n">
-        <v>23.98443253374985</v>
+        <v>23.98443253374982</v>
       </c>
       <c r="H13" t="n">
-        <v>8.273202207802164</v>
+        <v>8.273202207802136</v>
       </c>
       <c r="I13" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>59.30153252655392</v>
+        <v>134.8971174813501</v>
       </c>
       <c r="T13" t="n">
-        <v>79.81338309784188</v>
+        <v>79.81338309784185</v>
       </c>
       <c r="U13" t="n">
-        <v>244.3056051838142</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3917146814257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>143.7770696941887</v>
       </c>
       <c r="X13" t="n">
-        <v>82.96372674663485</v>
+        <v>82.96372674663482</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.83872470969249</v>
+        <v>75.83872470969246</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>211.9371129782807</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.233700684801647</v>
+        <v>2.233700684801676</v>
       </c>
       <c r="T14" t="n">
-        <v>68.04769262841239</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>108.3748977061046</v>
+        <v>65.69771720054342</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.0063298277326</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4950400750107</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>79.72352959702891</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.78725500746503</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>82.3067287271503</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>4.699136922236448</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>14.89915181299864</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>119.2305372638204</v>
       </c>
       <c r="H15" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>143.7533427911297</v>
+        <v>1.007414148727399</v>
       </c>
       <c r="T15" t="n">
-        <v>51.35799433355772</v>
+        <v>51.35799433355775</v>
       </c>
       <c r="U15" t="n">
-        <v>83.09652842683919</v>
+        <v>83.09652842683921</v>
       </c>
       <c r="V15" t="n">
-        <v>90.05465850702296</v>
+        <v>90.05465850702299</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>108.9490545185173</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>63.0270565610752</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>62.93676713490208</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.08605153953499</v>
+        <v>37.08605153953502</v>
       </c>
       <c r="C16" t="n">
-        <v>24.50089245622553</v>
+        <v>24.50089245622556</v>
       </c>
       <c r="D16" t="n">
-        <v>5.869544375810051</v>
+        <v>5.869544375810079</v>
       </c>
       <c r="E16" t="n">
-        <v>3.688034004166866</v>
+        <v>3.688034004166894</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>78.27070433532462</v>
       </c>
       <c r="G16" t="n">
         <v>166.7303611761521</v>
       </c>
       <c r="H16" t="n">
-        <v>8.273202207802164</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>134.8971174813497</v>
+        <v>59.30153252655395</v>
       </c>
       <c r="T16" t="n">
-        <v>79.81338309784188</v>
+        <v>79.81338309784191</v>
       </c>
       <c r="U16" t="n">
         <v>143.5043397223264</v>
@@ -1828,10 +1828,10 @@
         <v>143.7770696941887</v>
       </c>
       <c r="X16" t="n">
-        <v>82.96372674663485</v>
+        <v>82.96372674663488</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.83872470969249</v>
+        <v>75.83872470969251</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.7758866943133</v>
+        <v>161.1459090108607</v>
       </c>
       <c r="C17" t="n">
-        <v>143.6849591183875</v>
+        <v>143.6849591183877</v>
       </c>
       <c r="D17" t="n">
-        <v>133.0951089680629</v>
+        <v>133.0951089680631</v>
       </c>
       <c r="E17" t="n">
-        <v>160.3424374196418</v>
+        <v>160.342437419642</v>
       </c>
       <c r="F17" t="n">
-        <v>185.2881130890914</v>
+        <v>177.0678311751196</v>
       </c>
       <c r="G17" t="n">
-        <v>190.904472870895</v>
+        <v>190.9044728708952</v>
       </c>
       <c r="H17" t="n">
-        <v>89.10555695396853</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>29.53289369588687</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>106.1643258175149</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>127.6530360647932</v>
       </c>
       <c r="X17" t="n">
-        <v>148.143168025849</v>
+        <v>148.1431680258492</v>
       </c>
       <c r="Y17" t="n">
-        <v>164.6500060034336</v>
+        <v>164.6500060034338</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.93825386417815</v>
       </c>
       <c r="I18" t="n">
-        <v>37.62587671097609</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>4.25452441662147</v>
+        <v>4.254524416621669</v>
       </c>
       <c r="V18" t="n">
-        <v>11.21265449680524</v>
+        <v>11.21265449680544</v>
       </c>
       <c r="W18" t="n">
-        <v>152.737151000253</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9713790876241513</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U19" t="n">
-        <v>64.66233571210869</v>
+        <v>64.66233571210888</v>
       </c>
       <c r="V19" t="n">
-        <v>185.4722078566899</v>
+        <v>30.54971067120817</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>64.93506568397117</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>184.0448484519292</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>161.1459090108605</v>
+        <v>46.76130127937352</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>143.6849591183877</v>
       </c>
       <c r="D20" t="n">
-        <v>133.0951089680629</v>
+        <v>133.0951089680631</v>
       </c>
       <c r="E20" t="n">
-        <v>160.3424374196418</v>
+        <v>160.342437419642</v>
       </c>
       <c r="F20" t="n">
-        <v>185.2881130890914</v>
+        <v>185.2881130890916</v>
       </c>
       <c r="G20" t="n">
-        <v>190.904472870895</v>
+        <v>190.9044728708952</v>
       </c>
       <c r="H20" t="n">
-        <v>89.10555695396853</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.53289369588687</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>16.82622655456201</v>
+        <v>106.1643258175151</v>
       </c>
       <c r="W20" t="n">
-        <v>127.653036064793</v>
+        <v>127.6530360647932</v>
       </c>
       <c r="X20" t="n">
-        <v>148.143168025849</v>
+        <v>148.1431680258492</v>
       </c>
       <c r="Y20" t="n">
-        <v>164.6500060034336</v>
+        <v>164.6500060034338</v>
       </c>
     </row>
     <row r="21">
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4.25452441662147</v>
+        <v>4.254524416621669</v>
       </c>
       <c r="V21" t="n">
-        <v>11.21265449680524</v>
+        <v>11.21265449680544</v>
       </c>
       <c r="W21" t="n">
         <v>190.363027711229</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.1632654142736</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>39.8961873973934</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9713790876241513</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U22" t="n">
         <v>286.2502683647287</v>
       </c>
       <c r="V22" t="n">
-        <v>30.54971067120798</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>4.121722736417325</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>161.1459090108605</v>
+        <v>161.1459090108607</v>
       </c>
       <c r="C23" t="n">
-        <v>143.6849591183875</v>
+        <v>143.6849591183877</v>
       </c>
       <c r="D23" t="n">
-        <v>133.0951089680629</v>
+        <v>133.0951089680631</v>
       </c>
       <c r="E23" t="n">
-        <v>160.3424374196418</v>
+        <v>160.342437419642</v>
       </c>
       <c r="F23" t="n">
-        <v>185.2881130890914</v>
+        <v>185.2881130890916</v>
       </c>
       <c r="G23" t="n">
-        <v>190.904472870895</v>
+        <v>190.9044728708952</v>
       </c>
       <c r="H23" t="n">
-        <v>89.10555695396855</v>
+        <v>89.10555695396874</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.53289369588687</v>
+        <v>29.53289369588706</v>
       </c>
       <c r="V23" t="n">
-        <v>106.1643258175149</v>
+        <v>106.1643258175151</v>
       </c>
       <c r="W23" t="n">
-        <v>127.653036064793</v>
+        <v>127.6530360647932</v>
       </c>
       <c r="X23" t="n">
-        <v>148.143168025849</v>
+        <v>148.1431680258492</v>
       </c>
       <c r="Y23" t="n">
-        <v>164.6500060034336</v>
+        <v>164.6500060034338</v>
       </c>
     </row>
     <row r="24">
@@ -2403,10 +2403,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>31.22953047519474</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8424570692415</v>
+        <v>4.254524416621669</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>176.1047543489427</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.7303611761521</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>202.0474611689562</v>
       </c>
       <c r="T25" t="n">
-        <v>18.58759014893703</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U25" t="n">
-        <v>64.66233571210869</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V25" t="n">
-        <v>30.54971067120798</v>
+        <v>30.54971067120817</v>
       </c>
       <c r="W25" t="n">
-        <v>64.93506568397098</v>
+        <v>249.4963740583761</v>
       </c>
       <c r="X25" t="n">
-        <v>4.121722736417126</v>
+        <v>4.121722736417325</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.8918376532629</v>
+        <v>303.8918376532631</v>
       </c>
       <c r="C26" t="n">
-        <v>286.4308877607899</v>
+        <v>286.43088776079</v>
       </c>
       <c r="D26" t="n">
-        <v>275.8410376104653</v>
+        <v>275.8410376104654</v>
       </c>
       <c r="E26" t="n">
-        <v>303.0883660620441</v>
+        <v>303.0883660620443</v>
       </c>
       <c r="F26" t="n">
-        <v>328.0340417314937</v>
+        <v>328.0340417314939</v>
       </c>
       <c r="G26" t="n">
-        <v>333.6504015132973</v>
+        <v>333.6504015132975</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8514855963709</v>
+        <v>231.851485596371</v>
       </c>
       <c r="I26" t="n">
-        <v>23.28856145325715</v>
+        <v>23.28856145325727</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.1376253169863</v>
+        <v>66.13762531698643</v>
       </c>
       <c r="T26" t="n">
-        <v>131.951617260597</v>
+        <v>131.9516172605972</v>
       </c>
       <c r="U26" t="n">
-        <v>172.2788223382892</v>
+        <v>172.2788223382894</v>
       </c>
       <c r="V26" t="n">
-        <v>248.9102544599172</v>
+        <v>248.9102544599174</v>
       </c>
       <c r="W26" t="n">
-        <v>270.3989647071953</v>
+        <v>270.3989647071955</v>
       </c>
       <c r="X26" t="n">
-        <v>290.8890966682513</v>
+        <v>290.8890966682515</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.395934645836</v>
+        <v>307.3959346458361</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6258767109761</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.799003079515188</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S27" t="n">
         <v>143.7533427911297</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.9899761717196</v>
+        <v>100.9899761717198</v>
       </c>
       <c r="C28" t="n">
-        <v>88.40481708841017</v>
+        <v>88.40481708841031</v>
       </c>
       <c r="D28" t="n">
-        <v>69.77346900799469</v>
+        <v>69.77346900799483</v>
       </c>
       <c r="E28" t="n">
-        <v>67.59195863635151</v>
+        <v>67.59195863635165</v>
       </c>
       <c r="F28" t="n">
-        <v>66.57904401271358</v>
+        <v>66.57904401271372</v>
       </c>
       <c r="G28" t="n">
-        <v>87.88835716593449</v>
+        <v>87.88835716593464</v>
       </c>
       <c r="H28" t="n">
-        <v>72.17712683998681</v>
+        <v>72.17712683998695</v>
       </c>
       <c r="I28" t="n">
-        <v>38.69824412549286</v>
+        <v>38.69824412549299</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76940982432934</v>
+        <v>41.76940982432948</v>
       </c>
       <c r="S28" t="n">
-        <v>123.2054571587386</v>
+        <v>123.2054571587387</v>
       </c>
       <c r="T28" t="n">
-        <v>143.7173077300265</v>
+        <v>143.7173077300266</v>
       </c>
       <c r="U28" t="n">
-        <v>207.408264354511</v>
+        <v>207.4082643545112</v>
       </c>
       <c r="V28" t="n">
-        <v>173.2956393136103</v>
+        <v>173.2956393136105</v>
       </c>
       <c r="W28" t="n">
-        <v>207.6809943263733</v>
+        <v>207.6809943263735</v>
       </c>
       <c r="X28" t="n">
-        <v>146.8676513788195</v>
+        <v>146.8676513788196</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.7426493418771</v>
+        <v>139.7426493418773</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.8918376532629</v>
+        <v>303.891837653263</v>
       </c>
       <c r="C29" t="n">
-        <v>286.4308877607899</v>
+        <v>286.43088776079</v>
       </c>
       <c r="D29" t="n">
-        <v>275.8410376104653</v>
+        <v>275.8410376104654</v>
       </c>
       <c r="E29" t="n">
-        <v>303.0883660620441</v>
+        <v>303.0883660620442</v>
       </c>
       <c r="F29" t="n">
-        <v>328.0340417314937</v>
+        <v>328.0340417314939</v>
       </c>
       <c r="G29" t="n">
-        <v>333.6504015132973</v>
+        <v>333.6504015132974</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8514855963709</v>
+        <v>231.851485596371</v>
       </c>
       <c r="I29" t="n">
-        <v>23.28856145325713</v>
+        <v>23.28856145325722</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.13762531698629</v>
+        <v>66.13762531698637</v>
       </c>
       <c r="T29" t="n">
-        <v>131.951617260597</v>
+        <v>131.9516172605971</v>
       </c>
       <c r="U29" t="n">
-        <v>172.2788223382892</v>
+        <v>172.2788223382893</v>
       </c>
       <c r="V29" t="n">
-        <v>248.9102544599172</v>
+        <v>248.9102544599173</v>
       </c>
       <c r="W29" t="n">
-        <v>270.3989647071953</v>
+        <v>270.3989647071954</v>
       </c>
       <c r="X29" t="n">
-        <v>290.8890966682513</v>
+        <v>290.8890966682515</v>
       </c>
       <c r="Y29" t="n">
         <v>307.395934645836</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.9899761717196</v>
+        <v>100.9899761717197</v>
       </c>
       <c r="C31" t="n">
-        <v>88.40481708841017</v>
+        <v>88.40481708841025</v>
       </c>
       <c r="D31" t="n">
-        <v>69.77346900799469</v>
+        <v>69.77346900799478</v>
       </c>
       <c r="E31" t="n">
-        <v>67.59195863635151</v>
+        <v>67.59195863635159</v>
       </c>
       <c r="F31" t="n">
-        <v>66.57904401271358</v>
+        <v>66.57904401271367</v>
       </c>
       <c r="G31" t="n">
-        <v>87.88835716593449</v>
+        <v>87.88835716593458</v>
       </c>
       <c r="H31" t="n">
-        <v>72.17712683998681</v>
+        <v>72.1771268399869</v>
       </c>
       <c r="I31" t="n">
-        <v>38.69824412549285</v>
+        <v>38.69824412549293</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76940982432934</v>
+        <v>41.76940982432942</v>
       </c>
       <c r="S31" t="n">
-        <v>123.2054571587386</v>
+        <v>123.2054571587387</v>
       </c>
       <c r="T31" t="n">
-        <v>143.7173077300265</v>
+        <v>143.7173077300266</v>
       </c>
       <c r="U31" t="n">
-        <v>207.408264354511</v>
+        <v>207.4082643545111</v>
       </c>
       <c r="V31" t="n">
-        <v>173.2956393136103</v>
+        <v>173.2956393136104</v>
       </c>
       <c r="W31" t="n">
-        <v>207.6809943263733</v>
+        <v>207.6809943263734</v>
       </c>
       <c r="X31" t="n">
-        <v>146.8676513788195</v>
+        <v>146.8676513788196</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.7426493418771</v>
+        <v>139.7426493418772</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.8918376532629</v>
+        <v>303.891837653263</v>
       </c>
       <c r="C32" t="n">
-        <v>286.4308877607899</v>
+        <v>286.43088776079</v>
       </c>
       <c r="D32" t="n">
-        <v>275.8410376104653</v>
+        <v>275.8410376104654</v>
       </c>
       <c r="E32" t="n">
-        <v>303.0883660620441</v>
+        <v>303.0883660620442</v>
       </c>
       <c r="F32" t="n">
-        <v>328.0340417314937</v>
+        <v>328.0340417314939</v>
       </c>
       <c r="G32" t="n">
-        <v>333.6504015132973</v>
+        <v>333.6504015132974</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8514855963709</v>
+        <v>231.851485596371</v>
       </c>
       <c r="I32" t="n">
-        <v>23.28856145325713</v>
+        <v>23.2885614532572</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.13762531698629</v>
+        <v>66.13762531698636</v>
       </c>
       <c r="T32" t="n">
-        <v>131.951617260597</v>
+        <v>131.9516172605971</v>
       </c>
       <c r="U32" t="n">
-        <v>172.2788223382892</v>
+        <v>172.2788223382893</v>
       </c>
       <c r="V32" t="n">
-        <v>248.9102544599172</v>
+        <v>248.9102544599173</v>
       </c>
       <c r="W32" t="n">
-        <v>270.3989647071953</v>
+        <v>270.3989647071954</v>
       </c>
       <c r="X32" t="n">
-        <v>290.8890966682513</v>
+        <v>290.8890966682515</v>
       </c>
       <c r="Y32" t="n">
         <v>307.395934645836</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9899761717196</v>
+        <v>100.9899761717197</v>
       </c>
       <c r="C34" t="n">
-        <v>88.40481708841017</v>
+        <v>88.40481708841024</v>
       </c>
       <c r="D34" t="n">
-        <v>69.77346900799469</v>
+        <v>69.77346900799476</v>
       </c>
       <c r="E34" t="n">
-        <v>67.59195863635151</v>
+        <v>67.59195863635158</v>
       </c>
       <c r="F34" t="n">
-        <v>66.57904401271358</v>
+        <v>66.57904401271365</v>
       </c>
       <c r="G34" t="n">
-        <v>87.88835716593449</v>
+        <v>87.88835716593455</v>
       </c>
       <c r="H34" t="n">
-        <v>72.17712683998681</v>
+        <v>72.17712683998688</v>
       </c>
       <c r="I34" t="n">
-        <v>38.69824412549285</v>
+        <v>38.69824412549292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76940982432934</v>
+        <v>41.7694098243294</v>
       </c>
       <c r="S34" t="n">
         <v>123.2054571587386</v>
       </c>
       <c r="T34" t="n">
-        <v>143.7173077300265</v>
+        <v>143.7173077300266</v>
       </c>
       <c r="U34" t="n">
-        <v>207.408264354511</v>
+        <v>207.4082643545111</v>
       </c>
       <c r="V34" t="n">
-        <v>173.2956393136103</v>
+        <v>173.2956393136104</v>
       </c>
       <c r="W34" t="n">
-        <v>207.6809943263733</v>
+        <v>207.6809943263734</v>
       </c>
       <c r="X34" t="n">
-        <v>146.8676513788195</v>
+        <v>146.8676513788196</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.7426493418771</v>
+        <v>139.7426493418772</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3275,10 @@
         <v>201.7606166861364</v>
       </c>
       <c r="F35" t="n">
-        <v>226.706292355586</v>
+        <v>226.7062923555861</v>
       </c>
       <c r="G35" t="n">
-        <v>232.3226521373896</v>
+        <v>232.3226521373897</v>
       </c>
       <c r="H35" t="n">
         <v>130.5237362204632</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>30.6238678846893</v>
+        <v>30.62386788468935</v>
       </c>
       <c r="U35" t="n">
-        <v>70.95107296238149</v>
+        <v>70.95107296238156</v>
       </c>
       <c r="V35" t="n">
-        <v>147.5825050840095</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W35" t="n">
-        <v>169.0712153312876</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X35" t="n">
-        <v>189.5613472923436</v>
+        <v>189.5613472923437</v>
       </c>
       <c r="Y35" t="n">
-        <v>206.0681852699282</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>37.62587671097609</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>24.42745702209961</v>
       </c>
       <c r="T36" t="n">
-        <v>120.8181274840143</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U36" t="n">
         <v>225.8424570692415</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.35180629809363</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>21.87770778283083</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T37" t="n">
-        <v>222.5593117402442</v>
+        <v>42.38955835411884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2502683647287</v>
+        <v>106.0805149786034</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>71.96788993770267</v>
       </c>
       <c r="W37" t="n">
-        <v>106.3532449504656</v>
+        <v>106.3532449504657</v>
       </c>
       <c r="X37" t="n">
-        <v>45.53990200291176</v>
+        <v>45.53990200291182</v>
       </c>
       <c r="Y37" t="n">
-        <v>76.01800090086937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.5640882773551</v>
+        <v>202.5640882773552</v>
       </c>
       <c r="C38" t="n">
-        <v>185.103138384882</v>
+        <v>185.1031383848822</v>
       </c>
       <c r="D38" t="n">
-        <v>174.5132882345575</v>
+        <v>174.5132882345576</v>
       </c>
       <c r="E38" t="n">
-        <v>201.7606166861363</v>
+        <v>201.7606166861364</v>
       </c>
       <c r="F38" t="n">
-        <v>226.7062923555859</v>
+        <v>226.7062923555861</v>
       </c>
       <c r="G38" t="n">
-        <v>232.3226521373895</v>
+        <v>232.3226521373897</v>
       </c>
       <c r="H38" t="n">
-        <v>130.5237362204631</v>
+        <v>130.5237362204632</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>30.62386788468918</v>
+        <v>30.62386788468935</v>
       </c>
       <c r="U38" t="n">
-        <v>70.95107296238139</v>
+        <v>70.95107296238156</v>
       </c>
       <c r="V38" t="n">
-        <v>147.5825050840094</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W38" t="n">
-        <v>169.0712153312875</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X38" t="n">
-        <v>189.5613472923435</v>
+        <v>189.5613472923437</v>
       </c>
       <c r="Y38" t="n">
-        <v>206.0681852699281</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3591,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>56.57020025581402</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>6.799003079515174</v>
       </c>
       <c r="S39" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.10392297596</v>
+        <v>13.93416958983469</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8424570692415</v>
+        <v>190.0875548990433</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>21.87770778283072</v>
+        <v>21.87770778283089</v>
       </c>
       <c r="T40" t="n">
-        <v>42.38955835411867</v>
+        <v>42.38955835411884</v>
       </c>
       <c r="U40" t="n">
-        <v>106.0805149786032</v>
+        <v>194.0966846003749</v>
       </c>
       <c r="V40" t="n">
-        <v>71.96788993770249</v>
+        <v>71.96788993770267</v>
       </c>
       <c r="W40" t="n">
-        <v>106.3532449504655</v>
+        <v>106.3532449504657</v>
       </c>
       <c r="X40" t="n">
-        <v>45.53990200291165</v>
+        <v>45.53990200291182</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.2439280398004</v>
+        <v>38.41489996596945</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.5640882773551</v>
+        <v>202.5640882773552</v>
       </c>
       <c r="C41" t="n">
-        <v>185.103138384882</v>
+        <v>185.1031383848822</v>
       </c>
       <c r="D41" t="n">
-        <v>174.5132882345575</v>
+        <v>174.5132882345576</v>
       </c>
       <c r="E41" t="n">
-        <v>201.7606166861363</v>
+        <v>201.7606166861364</v>
       </c>
       <c r="F41" t="n">
-        <v>226.7062923555859</v>
+        <v>226.7062923555861</v>
       </c>
       <c r="G41" t="n">
-        <v>232.3226521373895</v>
+        <v>232.3226521373897</v>
       </c>
       <c r="H41" t="n">
-        <v>130.5237362204631</v>
+        <v>130.5237362204632</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>30.62386788468918</v>
+        <v>30.62386788468935</v>
       </c>
       <c r="U41" t="n">
-        <v>70.95107296238139</v>
+        <v>70.95107296238156</v>
       </c>
       <c r="V41" t="n">
-        <v>147.5825050840094</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W41" t="n">
-        <v>169.0712153312875</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X41" t="n">
-        <v>189.5613472923435</v>
+        <v>189.5613472923437</v>
       </c>
       <c r="Y41" t="n">
-        <v>206.0681852699281</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="42">
@@ -3828,13 +3828,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>18.94432354483969</v>
       </c>
       <c r="G42" t="n">
-        <v>106.8839578941791</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>37.62587671097609</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T42" t="n">
-        <v>13.93416958983452</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U42" t="n">
         <v>225.8424570692415</v>
@@ -3901,19 +3901,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>119.5269892476232</v>
       </c>
       <c r="S43" t="n">
-        <v>21.87770778283072</v>
+        <v>21.87770778283089</v>
       </c>
       <c r="T43" t="n">
-        <v>42.38955835411867</v>
+        <v>42.38955835411884</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2502683647287</v>
+        <v>106.0805149786034</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>71.96788993770267</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>106.3532449504657</v>
       </c>
       <c r="X43" t="n">
-        <v>85.54666076980379</v>
+        <v>45.53990200291182</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.41489996596928</v>
+        <v>38.41489996596945</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.5640882773551</v>
+        <v>202.5640882773552</v>
       </c>
       <c r="C44" t="n">
-        <v>185.103138384882</v>
+        <v>185.1031383848822</v>
       </c>
       <c r="D44" t="n">
-        <v>174.5132882345575</v>
+        <v>174.5132882345576</v>
       </c>
       <c r="E44" t="n">
-        <v>201.7606166861363</v>
+        <v>201.7606166861364</v>
       </c>
       <c r="F44" t="n">
-        <v>226.7062923555859</v>
+        <v>226.7062923555861</v>
       </c>
       <c r="G44" t="n">
-        <v>232.3226521373895</v>
+        <v>232.3226521373897</v>
       </c>
       <c r="H44" t="n">
-        <v>130.5237362204631</v>
+        <v>130.5237362204632</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>30.62386788468919</v>
+        <v>30.62386788469025</v>
       </c>
       <c r="U44" t="n">
-        <v>70.95107296238137</v>
+        <v>70.95107296238155</v>
       </c>
       <c r="V44" t="n">
-        <v>147.5825050840094</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W44" t="n">
-        <v>169.0712153312875</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X44" t="n">
-        <v>189.5613472923435</v>
+        <v>189.5613472923437</v>
       </c>
       <c r="Y44" t="n">
-        <v>206.0681852699281</v>
+        <v>206.0681852699283</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>62.05333373307344</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.10392297596</v>
+        <v>75.89251993368148</v>
       </c>
       <c r="U45" t="n">
         <v>225.8424570692415</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>55.44897463022053</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.0474611689562</v>
+        <v>21.87770778283089</v>
       </c>
       <c r="T46" t="n">
-        <v>222.5593117402442</v>
+        <v>42.38955835411884</v>
       </c>
       <c r="U46" t="n">
-        <v>106.0805149786032</v>
+        <v>106.0805149786034</v>
       </c>
       <c r="V46" t="n">
-        <v>71.96788993770249</v>
+        <v>71.96788993770267</v>
       </c>
       <c r="W46" t="n">
-        <v>106.3532449504655</v>
+        <v>106.3532449504657</v>
       </c>
       <c r="X46" t="n">
-        <v>85.54666076980405</v>
+        <v>45.53990200291182</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>840.1457487799198</v>
+        <v>707.0404201985452</v>
       </c>
       <c r="C11" t="n">
-        <v>840.1457487799198</v>
+        <v>707.0404201985452</v>
       </c>
       <c r="D11" t="n">
-        <v>737.9111630785992</v>
+        <v>707.0404201985452</v>
       </c>
       <c r="E11" t="n">
-        <v>737.9111630785992</v>
+        <v>465.4399743097983</v>
       </c>
       <c r="F11" t="n">
-        <v>471.1130649984889</v>
+        <v>198.6418762296881</v>
       </c>
       <c r="G11" t="n">
         <v>198.6418762296881</v>
       </c>
       <c r="H11" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I11" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J11" t="n">
-        <v>85.90061049936571</v>
+        <v>85.90061049936591</v>
       </c>
       <c r="K11" t="n">
         <v>221.9215783630808</v>
@@ -5048,16 +5048,16 @@
         <v>427.5693786526951</v>
       </c>
       <c r="M11" t="n">
-        <v>688.0616180080095</v>
+        <v>688.0616180080098</v>
       </c>
       <c r="N11" t="n">
-        <v>957.3827025111775</v>
+        <v>957.3827025111779</v>
       </c>
       <c r="O11" t="n">
         <v>1198.359704313246</v>
       </c>
       <c r="P11" t="n">
-        <v>1369.52699929238</v>
+        <v>1369.526999292379</v>
       </c>
       <c r="Q11" t="n">
         <v>1449.893762788131</v>
@@ -5072,19 +5072,19 @@
         <v>1378.902456411148</v>
       </c>
       <c r="U11" t="n">
-        <v>1269.432862768618</v>
+        <v>1348.44787465955</v>
       </c>
       <c r="V11" t="n">
-        <v>1082.557782134544</v>
+        <v>1161.572794025476</v>
       </c>
       <c r="W11" t="n">
-        <v>1082.557782134544</v>
+        <v>952.9919454648597</v>
       </c>
       <c r="X11" t="n">
-        <v>1082.557782134544</v>
+        <v>952.9919454648597</v>
       </c>
       <c r="Y11" t="n">
-        <v>1082.557782134544</v>
+        <v>707.0404201985452</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>232.9792426571883</v>
+        <v>369.7817137577168</v>
       </c>
       <c r="C12" t="n">
-        <v>89.1468138387856</v>
+        <v>195.3286844765898</v>
       </c>
       <c r="D12" t="n">
-        <v>84.40021088703162</v>
+        <v>190.5820815248358</v>
       </c>
       <c r="E12" t="n">
-        <v>69.3505625910734</v>
+        <v>31.34462651938034</v>
       </c>
       <c r="F12" t="n">
-        <v>67.00381132745565</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="G12" t="n">
-        <v>67.00381132745565</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="H12" t="n">
-        <v>67.00381132745565</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I12" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J12" t="n">
-        <v>44.07090758709818</v>
+        <v>168.9010325741029</v>
       </c>
       <c r="K12" t="n">
-        <v>147.9879453635422</v>
+        <v>272.8180703505469</v>
       </c>
       <c r="L12" t="n">
-        <v>334.0397679681047</v>
+        <v>458.8698929551094</v>
       </c>
       <c r="M12" t="n">
-        <v>570.5103376223547</v>
+        <v>695.3404626093594</v>
       </c>
       <c r="N12" t="n">
-        <v>827.6482245309594</v>
+        <v>952.4783495179641</v>
       </c>
       <c r="O12" t="n">
-        <v>1040.659359889799</v>
+        <v>1165.489484876804</v>
       </c>
       <c r="P12" t="n">
-        <v>1192.286509165409</v>
+        <v>1317.116634152414</v>
       </c>
       <c r="Q12" t="n">
         <v>1449.893762788131</v>
       </c>
       <c r="R12" t="n">
-        <v>1443.026082909833</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="S12" t="n">
-        <v>1297.820686151116</v>
+        <v>1304.688366029414</v>
       </c>
       <c r="T12" t="n">
-        <v>1101.75611748853</v>
+        <v>1252.811604076325</v>
       </c>
       <c r="U12" t="n">
-        <v>1017.820230188693</v>
+        <v>1024.687910066991</v>
       </c>
       <c r="V12" t="n">
-        <v>926.8559286664474</v>
+        <v>789.5358018352479</v>
       </c>
       <c r="W12" t="n">
-        <v>816.806378647743</v>
+        <v>665.2332363292769</v>
       </c>
       <c r="X12" t="n">
-        <v>608.9548784422102</v>
+        <v>601.5695428332414</v>
       </c>
       <c r="Y12" t="n">
-        <v>401.1945796772563</v>
+        <v>537.9970507777848</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.4135046436353</v>
+        <v>98.68598127423053</v>
       </c>
       <c r="C13" t="n">
-        <v>192.6651284252256</v>
+        <v>73.93760505582092</v>
       </c>
       <c r="D13" t="n">
-        <v>186.7362957223872</v>
+        <v>68.00877235298252</v>
       </c>
       <c r="E13" t="n">
-        <v>183.0110088494914</v>
+        <v>64.28348548008672</v>
       </c>
       <c r="F13" t="n">
-        <v>180.3088680610783</v>
+        <v>61.58134469167368</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0821685320381</v>
+        <v>37.35464516263346</v>
       </c>
       <c r="H13" t="n">
-        <v>147.7253986251672</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I13" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J13" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="K13" t="n">
         <v>151.9473816770444</v>
@@ -5224,25 +5224,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S13" t="n">
-        <v>1142.587448376499</v>
+        <v>1066.228271654483</v>
       </c>
       <c r="T13" t="n">
-        <v>1061.96786948979</v>
+        <v>985.6086927677736</v>
       </c>
       <c r="U13" t="n">
-        <v>815.1945309202807</v>
+        <v>696.4670075508759</v>
       </c>
       <c r="V13" t="n">
-        <v>704.6978494238912</v>
+        <v>441.782519344989</v>
       </c>
       <c r="W13" t="n">
-        <v>559.4684860964278</v>
+        <v>296.5531560175257</v>
       </c>
       <c r="X13" t="n">
-        <v>475.6667419079078</v>
+        <v>212.7514118290057</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.061969473875</v>
+        <v>136.1466393949729</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>737.9111630785992</v>
+        <v>951.9890549758525</v>
       </c>
       <c r="C14" t="n">
-        <v>737.9111630785992</v>
+        <v>951.9890549758525</v>
       </c>
       <c r="D14" t="n">
         <v>737.9111630785992</v>
@@ -5264,10 +5264,10 @@
         <v>737.9111630785992</v>
       </c>
       <c r="F14" t="n">
-        <v>471.113064998489</v>
+        <v>471.1130649984889</v>
       </c>
       <c r="G14" t="n">
-        <v>198.6418762296881</v>
+        <v>198.6418762296882</v>
       </c>
       <c r="H14" t="n">
         <v>28.99787525576263</v>
@@ -5306,22 +5306,22 @@
         <v>1447.63749947015</v>
       </c>
       <c r="T14" t="n">
-        <v>1378.902456411148</v>
+        <v>1447.63749947015</v>
       </c>
       <c r="U14" t="n">
-        <v>1269.432862768617</v>
+        <v>1381.27616896455</v>
       </c>
       <c r="V14" t="n">
-        <v>1269.432862768617</v>
+        <v>1194.401088330477</v>
       </c>
       <c r="W14" t="n">
-        <v>1060.852014208</v>
+        <v>1194.401088330477</v>
       </c>
       <c r="X14" t="n">
-        <v>980.3231964332238</v>
+        <v>1194.401088330477</v>
       </c>
       <c r="Y14" t="n">
-        <v>980.3231964332238</v>
+        <v>1194.401088330477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377.1670493666858</v>
+        <v>816.5981493734755</v>
       </c>
       <c r="C15" t="n">
-        <v>294.0289395412814</v>
+        <v>642.1451200923485</v>
       </c>
       <c r="D15" t="n">
-        <v>289.2823365895275</v>
+        <v>493.2107104310973</v>
       </c>
       <c r="E15" t="n">
-        <v>274.2326882935693</v>
+        <v>333.9732554256418</v>
       </c>
       <c r="F15" t="n">
-        <v>127.6981303204542</v>
+        <v>187.4386974525267</v>
       </c>
       <c r="G15" t="n">
-        <v>127.6981303204542</v>
+        <v>67.00381132745565</v>
       </c>
       <c r="H15" t="n">
-        <v>28.99787525576263</v>
+        <v>67.00381132745565</v>
       </c>
       <c r="I15" t="n">
         <v>28.99787525576263</v>
@@ -5361,46 +5361,46 @@
         <v>147.9879453635422</v>
       </c>
       <c r="L15" t="n">
-        <v>334.0397679681047</v>
+        <v>506.8366516536047</v>
       </c>
       <c r="M15" t="n">
-        <v>570.5103376223547</v>
+        <v>776.6780538521207</v>
       </c>
       <c r="N15" t="n">
-        <v>827.6482245309594</v>
+        <v>1033.815940760725</v>
       </c>
       <c r="O15" t="n">
-        <v>1186.496930821022</v>
+        <v>1246.827076119565</v>
       </c>
       <c r="P15" t="n">
-        <v>1338.124080096632</v>
+        <v>1398.454225395175</v>
       </c>
       <c r="Q15" t="n">
         <v>1449.893762788131</v>
       </c>
       <c r="R15" t="n">
-        <v>1443.026082909833</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="S15" t="n">
-        <v>1297.820686151116</v>
+        <v>1448.876172738912</v>
       </c>
       <c r="T15" t="n">
-        <v>1245.943924198028</v>
+        <v>1396.999410785823</v>
       </c>
       <c r="U15" t="n">
-        <v>1162.00803689819</v>
+        <v>1313.063523485986</v>
       </c>
       <c r="V15" t="n">
-        <v>1071.043735375945</v>
+        <v>1222.09922196374</v>
       </c>
       <c r="W15" t="n">
-        <v>816.8063786477433</v>
+        <v>1112.049671945036</v>
       </c>
       <c r="X15" t="n">
-        <v>608.9548784422104</v>
+        <v>1048.385978449</v>
       </c>
       <c r="Y15" t="n">
-        <v>401.1945796772565</v>
+        <v>984.8134863935436</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>387.0615946932253</v>
+        <v>463.4207714152412</v>
       </c>
       <c r="C16" t="n">
-        <v>362.3132184748157</v>
+        <v>438.6723951968316</v>
       </c>
       <c r="D16" t="n">
-        <v>356.3843857719772</v>
+        <v>432.7435624939931</v>
       </c>
       <c r="E16" t="n">
-        <v>352.6590988990814</v>
+        <v>429.0182756210972</v>
       </c>
       <c r="F16" t="n">
-        <v>205.769151401171</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="G16" t="n">
-        <v>37.3546451626335</v>
+        <v>181.5424518721308</v>
       </c>
       <c r="H16" t="n">
         <v>28.99787525576263</v>
@@ -5461,25 +5461,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S16" t="n">
-        <v>1066.228271654483</v>
+        <v>1142.587448376499</v>
       </c>
       <c r="T16" t="n">
-        <v>985.6086927677741</v>
+        <v>1061.96786948979</v>
       </c>
       <c r="U16" t="n">
-        <v>840.6548142603737</v>
+        <v>917.0139909823896</v>
       </c>
       <c r="V16" t="n">
-        <v>730.1581327639841</v>
+        <v>806.5173094859999</v>
       </c>
       <c r="W16" t="n">
-        <v>584.9287694365207</v>
+        <v>661.2879461585366</v>
       </c>
       <c r="X16" t="n">
-        <v>501.1270252480006</v>
+        <v>577.4862019700165</v>
       </c>
       <c r="Y16" t="n">
-        <v>424.5222528139678</v>
+        <v>500.8814295359837</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>940.5338837608606</v>
+        <v>842.2249556114269</v>
       </c>
       <c r="C17" t="n">
-        <v>795.3975614190549</v>
+        <v>697.088633269621</v>
       </c>
       <c r="D17" t="n">
-        <v>660.9580574109104</v>
+        <v>562.6491292614764</v>
       </c>
       <c r="E17" t="n">
-        <v>498.9959994112723</v>
+        <v>400.6870712618381</v>
       </c>
       <c r="F17" t="n">
-        <v>311.8362892202708</v>
+        <v>221.8306761354548</v>
       </c>
       <c r="G17" t="n">
-        <v>119.0034883405793</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="H17" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I17" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J17" t="n">
-        <v>85.9006104993659</v>
+        <v>85.90061049936591</v>
       </c>
       <c r="K17" t="n">
         <v>221.9215783630808</v>
@@ -5546,19 +5546,19 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U17" t="n">
-        <v>1420.06255703471</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="V17" t="n">
-        <v>1312.825864289746</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="W17" t="n">
-        <v>1312.825864289746</v>
+        <v>1320.951302116623</v>
       </c>
       <c r="X17" t="n">
-        <v>1163.186300627272</v>
+        <v>1171.311738454149</v>
       </c>
       <c r="Y17" t="n">
-        <v>996.873163250066</v>
+        <v>1004.998601076943</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>696.1632632484044</v>
+        <v>589.3381771472107</v>
       </c>
       <c r="C18" t="n">
-        <v>521.7102339672774</v>
+        <v>414.8851478660837</v>
       </c>
       <c r="D18" t="n">
-        <v>372.7758243060262</v>
+        <v>265.9507382048324</v>
       </c>
       <c r="E18" t="n">
-        <v>213.5383693005707</v>
+        <v>106.7132831993769</v>
       </c>
       <c r="F18" t="n">
-        <v>67.00381132745564</v>
+        <v>106.7132831993769</v>
       </c>
       <c r="G18" t="n">
-        <v>67.00381132745564</v>
+        <v>106.7132831993769</v>
       </c>
       <c r="H18" t="n">
-        <v>67.00381132745564</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I18" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J18" t="n">
         <v>44.07090758709816</v>
       </c>
       <c r="K18" t="n">
-        <v>147.9879453635422</v>
+        <v>354.1556615933077</v>
       </c>
       <c r="L18" t="n">
-        <v>334.0397679681047</v>
+        <v>540.2074841978703</v>
       </c>
       <c r="M18" t="n">
-        <v>570.5103376223547</v>
+        <v>776.6780538521202</v>
       </c>
       <c r="N18" t="n">
-        <v>827.6482245309594</v>
+        <v>1033.815940760725</v>
       </c>
       <c r="O18" t="n">
-        <v>1040.659359889799</v>
+        <v>1246.827076119564</v>
       </c>
       <c r="P18" t="n">
-        <v>1192.286509165409</v>
+        <v>1398.454225395175</v>
       </c>
       <c r="Q18" t="n">
         <v>1449.893762788131</v>
       </c>
       <c r="R18" t="n">
-        <v>1449.893762788131</v>
+        <v>1443.026082909833</v>
       </c>
       <c r="S18" t="n">
-        <v>1449.893762788131</v>
+        <v>1443.026082909833</v>
       </c>
       <c r="T18" t="n">
-        <v>1449.893762788131</v>
+        <v>1443.026082909833</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.596263377402</v>
+        <v>1438.728583499104</v>
       </c>
       <c r="V18" t="n">
-        <v>1434.270349744265</v>
+        <v>1427.402669865967</v>
       </c>
       <c r="W18" t="n">
-        <v>1279.990399238959</v>
+        <v>1173.165313137765</v>
       </c>
       <c r="X18" t="n">
-        <v>1072.138899033426</v>
+        <v>965.3138129322326</v>
       </c>
       <c r="Y18" t="n">
-        <v>864.3786002684724</v>
+        <v>757.5535141672788</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.99787525576261</v>
+        <v>197.9340581836695</v>
       </c>
       <c r="C19" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="D19" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="E19" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="F19" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="G19" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="H19" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I19" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J19" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="K19" t="n">
         <v>151.9473816770444</v>
@@ -5698,25 +5698,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S19" t="n">
-        <v>1202.487986282109</v>
+        <v>998.3996416670017</v>
       </c>
       <c r="T19" t="n">
-        <v>1201.506795284509</v>
+        <v>773.5922560707954</v>
       </c>
       <c r="U19" t="n">
-        <v>1136.191304666217</v>
+        <v>708.2767654525036</v>
       </c>
       <c r="V19" t="n">
-        <v>948.8456401645103</v>
+        <v>677.4184718452226</v>
       </c>
       <c r="W19" t="n">
-        <v>659.4284701275498</v>
+        <v>611.8274964068679</v>
       </c>
       <c r="X19" t="n">
-        <v>431.4389192295324</v>
+        <v>383.8379455088506</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.6463400860023</v>
+        <v>197.9340581836695</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>795.3975614190549</v>
+        <v>850.5282706760451</v>
       </c>
       <c r="C20" t="n">
-        <v>795.3975614190549</v>
+        <v>705.3919483342393</v>
       </c>
       <c r="D20" t="n">
-        <v>660.9580574109108</v>
+        <v>570.9524443260947</v>
       </c>
       <c r="E20" t="n">
-        <v>498.9959994112726</v>
+        <v>408.9903863264564</v>
       </c>
       <c r="F20" t="n">
-        <v>311.8362892202712</v>
+        <v>221.8306761354547</v>
       </c>
       <c r="G20" t="n">
-        <v>119.0034883405793</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="H20" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I20" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J20" t="n">
-        <v>85.9006104993659</v>
+        <v>85.90061049936591</v>
       </c>
       <c r="K20" t="n">
         <v>221.9215783630808</v>
@@ -5759,10 +5759,10 @@
         <v>427.5693786526951</v>
       </c>
       <c r="M20" t="n">
-        <v>688.0616180080094</v>
+        <v>688.0616180080098</v>
       </c>
       <c r="N20" t="n">
-        <v>957.3827025111775</v>
+        <v>957.3827025111779</v>
       </c>
       <c r="O20" t="n">
         <v>1198.359704313246</v>
@@ -5783,19 +5783,19 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U20" t="n">
-        <v>1420.06255703471</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="V20" t="n">
-        <v>1403.066368595758</v>
+        <v>1342.657070043166</v>
       </c>
       <c r="W20" t="n">
-        <v>1274.12390792425</v>
+        <v>1213.714609371658</v>
       </c>
       <c r="X20" t="n">
-        <v>1124.484344261776</v>
+        <v>1064.075045709184</v>
       </c>
       <c r="Y20" t="n">
-        <v>958.1712068845707</v>
+        <v>897.7619083319779</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>175.5324332288776</v>
       </c>
       <c r="F21" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="G21" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="H21" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I21" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J21" t="n">
         <v>44.07090758709816</v>
       </c>
       <c r="K21" t="n">
-        <v>147.9879453635422</v>
+        <v>181.3587779078078</v>
       </c>
       <c r="L21" t="n">
-        <v>334.0397679681047</v>
+        <v>540.2074841978703</v>
       </c>
       <c r="M21" t="n">
-        <v>570.5103376223547</v>
+        <v>776.6780538521202</v>
       </c>
       <c r="N21" t="n">
-        <v>827.6482245309594</v>
+        <v>1033.815940760725</v>
       </c>
       <c r="O21" t="n">
-        <v>1040.659359889799</v>
+        <v>1246.827076119564</v>
       </c>
       <c r="P21" t="n">
-        <v>1192.286509165409</v>
+        <v>1398.454225395175</v>
       </c>
       <c r="Q21" t="n">
         <v>1449.893762788131</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.1000955253523</v>
+        <v>140.2739009267461</v>
       </c>
       <c r="C22" t="n">
-        <v>364.1000955253523</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="D22" t="n">
-        <v>364.1000955253523</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="E22" t="n">
-        <v>216.1870019429592</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="F22" t="n">
-        <v>69.29705444504887</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="G22" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="H22" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="I22" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="J22" t="n">
-        <v>28.99787525576261</v>
+        <v>28.99787525576262</v>
       </c>
       <c r="K22" t="n">
         <v>151.9473816770444</v>
@@ -5938,22 +5938,22 @@
         <v>1202.487986282109</v>
       </c>
       <c r="T22" t="n">
-        <v>1201.506795284509</v>
+        <v>977.6806006859027</v>
       </c>
       <c r="U22" t="n">
-        <v>912.3651100676111</v>
+        <v>688.538915469005</v>
       </c>
       <c r="V22" t="n">
-        <v>881.5068164603304</v>
+        <v>433.8544272631182</v>
       </c>
       <c r="W22" t="n">
-        <v>592.0896464233697</v>
+        <v>144.4372572261576</v>
       </c>
       <c r="X22" t="n">
-        <v>364.1000955253523</v>
+        <v>140.2739009267461</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.1000955253523</v>
+        <v>140.2739009267461</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>945.3374924679595</v>
+        <v>945.3374924679601</v>
       </c>
       <c r="C23" t="n">
-        <v>800.2011701261538</v>
+        <v>800.2011701261544</v>
       </c>
       <c r="D23" t="n">
-        <v>665.7616661180093</v>
+        <v>665.7616661180098</v>
       </c>
       <c r="E23" t="n">
-        <v>503.7996081183712</v>
+        <v>503.7996081183717</v>
       </c>
       <c r="F23" t="n">
-        <v>316.6398979273697</v>
+        <v>316.6398979273702</v>
       </c>
       <c r="G23" t="n">
-        <v>123.8070970476777</v>
+        <v>123.8070970476779</v>
       </c>
       <c r="H23" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="I23" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="J23" t="n">
-        <v>90.70421920646424</v>
+        <v>90.7042192064643</v>
       </c>
       <c r="K23" t="n">
         <v>226.7251870701792</v>
       </c>
       <c r="L23" t="n">
-        <v>432.3729873597935</v>
+        <v>432.3729873597936</v>
       </c>
       <c r="M23" t="n">
-        <v>692.8652267151081</v>
+        <v>692.8652267151082</v>
       </c>
       <c r="N23" t="n">
-        <v>962.1863112182762</v>
+        <v>962.1863112182763</v>
       </c>
       <c r="O23" t="n">
         <v>1203.163313020345</v>
       </c>
       <c r="P23" t="n">
-        <v>1583.308689610119</v>
+        <v>1609.707434647299</v>
       </c>
       <c r="Q23" t="n">
-        <v>1663.67545310587</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="R23" t="n">
-        <v>1690.074198143048</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="S23" t="n">
-        <v>1690.074198143048</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="T23" t="n">
-        <v>1690.074198143048</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="U23" t="n">
-        <v>1660.242992389627</v>
+        <v>1660.242992389629</v>
       </c>
       <c r="V23" t="n">
-        <v>1553.006299644662</v>
+        <v>1553.006299644664</v>
       </c>
       <c r="W23" t="n">
-        <v>1424.063838973154</v>
+        <v>1424.063838973156</v>
       </c>
       <c r="X23" t="n">
-        <v>1274.424275310681</v>
+        <v>1274.424275310682</v>
       </c>
       <c r="Y23" t="n">
-        <v>1108.111137933475</v>
+        <v>1108.111137933476</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>388.7339031832137</v>
+        <v>662.9609358838098</v>
       </c>
       <c r="C24" t="n">
-        <v>214.2808739020867</v>
+        <v>488.5079066026828</v>
       </c>
       <c r="D24" t="n">
-        <v>65.34646424083545</v>
+        <v>339.5734969414315</v>
       </c>
       <c r="E24" t="n">
-        <v>33.80148396286096</v>
+        <v>180.336041935976</v>
       </c>
       <c r="F24" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="G24" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="H24" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="I24" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="J24" t="n">
-        <v>48.8745162941965</v>
+        <v>48.87451629419655</v>
       </c>
       <c r="K24" t="n">
-        <v>386.3595820897337</v>
+        <v>152.7915540706406</v>
       </c>
       <c r="L24" t="n">
-        <v>572.4114046942963</v>
+        <v>338.8433766752031</v>
       </c>
       <c r="M24" t="n">
-        <v>808.8819743485462</v>
+        <v>575.3139463294531</v>
       </c>
       <c r="N24" t="n">
-        <v>1066.019861257151</v>
+        <v>832.4518332380578</v>
       </c>
       <c r="O24" t="n">
-        <v>1279.03099661599</v>
+        <v>1045.462968596897</v>
       </c>
       <c r="P24" t="n">
-        <v>1430.658145891601</v>
+        <v>1463.756332637302</v>
       </c>
       <c r="Q24" t="n">
-        <v>1690.074198143048</v>
+        <v>1690.07419814305</v>
       </c>
       <c r="R24" t="n">
-        <v>1690.074198143048</v>
+        <v>1683.206518264752</v>
       </c>
       <c r="S24" t="n">
-        <v>1690.074198143048</v>
+        <v>1683.206518264752</v>
       </c>
       <c r="T24" t="n">
-        <v>1690.074198143048</v>
+        <v>1683.206518264752</v>
       </c>
       <c r="U24" t="n">
-        <v>1461.950504133713</v>
+        <v>1678.909018854023</v>
       </c>
       <c r="V24" t="n">
-        <v>1226.79839590197</v>
+        <v>1501.025428602566</v>
       </c>
       <c r="W24" t="n">
-        <v>972.5610391737684</v>
+        <v>1246.788071874365</v>
       </c>
       <c r="X24" t="n">
-        <v>764.7095389682356</v>
+        <v>1038.936571668832</v>
       </c>
       <c r="Y24" t="n">
-        <v>556.9492402032818</v>
+        <v>831.1762729038778</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>818.499790825977</v>
+        <v>202.2159902013985</v>
       </c>
       <c r="C25" t="n">
-        <v>649.5636078980701</v>
+        <v>202.2159902013985</v>
       </c>
       <c r="D25" t="n">
-        <v>649.5636078980701</v>
+        <v>202.2159902013985</v>
       </c>
       <c r="E25" t="n">
-        <v>501.650514315677</v>
+        <v>202.2159902013985</v>
       </c>
       <c r="F25" t="n">
-        <v>354.7605668177666</v>
+        <v>202.2159902013985</v>
       </c>
       <c r="G25" t="n">
-        <v>186.3460605792291</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="H25" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="I25" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="J25" t="n">
-        <v>33.80148396286096</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="K25" t="n">
-        <v>156.7509903841427</v>
+        <v>156.7509903841428</v>
       </c>
       <c r="L25" t="n">
         <v>369.6104631728359</v>
@@ -6175,22 +6175,22 @@
         <v>1003.2032503741</v>
       </c>
       <c r="T25" t="n">
-        <v>984.4279067893152</v>
+        <v>778.3958647778938</v>
       </c>
       <c r="U25" t="n">
-        <v>919.1124161710236</v>
+        <v>489.2541795609961</v>
       </c>
       <c r="V25" t="n">
-        <v>888.2541225637428</v>
+        <v>458.3958859537152</v>
       </c>
       <c r="W25" t="n">
-        <v>822.6631471253883</v>
+        <v>206.37934650081</v>
       </c>
       <c r="X25" t="n">
-        <v>818.499790825977</v>
+        <v>202.2159902013985</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.499790825977</v>
+        <v>202.2159902013985</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1873.862981641646</v>
+        <v>1873.862981641647</v>
       </c>
       <c r="C26" t="n">
         <v>1584.538852590344</v>
@@ -6209,58 +6209,58 @@
         <v>1305.911541872702</v>
       </c>
       <c r="E26" t="n">
-        <v>999.7616771635663</v>
+        <v>999.7616771635667</v>
       </c>
       <c r="F26" t="n">
-        <v>668.4141602630675</v>
+        <v>668.4141602630677</v>
       </c>
       <c r="G26" t="n">
-        <v>331.3935526738782</v>
+        <v>331.3935526738783</v>
       </c>
       <c r="H26" t="n">
-        <v>97.20013287956409</v>
+        <v>97.20013287956425</v>
       </c>
       <c r="I26" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J26" t="n">
         <v>297.9847176957859</v>
       </c>
       <c r="K26" t="n">
-        <v>609.1967245554654</v>
+        <v>754.909644004954</v>
       </c>
       <c r="L26" t="n">
-        <v>1228.329127250026</v>
+        <v>1374.042046699514</v>
       </c>
       <c r="M26" t="n">
-        <v>1933.839764763244</v>
+        <v>2079.552684212733</v>
       </c>
       <c r="N26" t="n">
-        <v>2636.134304434277</v>
+        <v>2781.847223883765</v>
       </c>
       <c r="O26" t="n">
-        <v>2877.111306236345</v>
+        <v>3399.816405135952</v>
       </c>
       <c r="P26" t="n">
-        <v>3366.859322305246</v>
+        <v>3570.983700115085</v>
       </c>
       <c r="Q26" t="n">
-        <v>3657.417926554303</v>
+        <v>3683.816671591481</v>
       </c>
       <c r="R26" t="n">
-        <v>3683.81667159148</v>
+        <v>3683.816671591481</v>
       </c>
       <c r="S26" t="n">
-        <v>3617.01098945311</v>
+        <v>3617.010989453111</v>
       </c>
       <c r="T26" t="n">
-        <v>3483.726527573719</v>
+        <v>3483.72652757372</v>
       </c>
       <c r="U26" t="n">
-        <v>3309.707515110801</v>
+        <v>3309.707515110802</v>
       </c>
       <c r="V26" t="n">
-        <v>3058.283015656339</v>
+        <v>3058.28301565634</v>
       </c>
       <c r="W26" t="n">
         <v>2785.152748275334</v>
@@ -6269,7 +6269,7 @@
         <v>2491.325377903363</v>
       </c>
       <c r="Y26" t="n">
-        <v>2180.82443381666</v>
+        <v>2180.824433816661</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>976.7539532415509</v>
+        <v>976.7539532415511</v>
       </c>
       <c r="C27" t="n">
-        <v>802.3009239604239</v>
+        <v>802.3009239604241</v>
       </c>
       <c r="D27" t="n">
-        <v>653.3665142991726</v>
+        <v>653.3665142991729</v>
       </c>
       <c r="E27" t="n">
-        <v>494.1290592937172</v>
+        <v>494.1290592937173</v>
       </c>
       <c r="F27" t="n">
-        <v>347.5945013206022</v>
+        <v>347.5945013206023</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3825245682142</v>
+        <v>210.3825245682143</v>
       </c>
       <c r="H27" t="n">
-        <v>111.6822695035226</v>
+        <v>111.6822695035227</v>
       </c>
       <c r="I27" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J27" t="n">
         <v>213.5794907501699</v>
@@ -6315,7 +6315,7 @@
         <v>1429.761528752947</v>
       </c>
       <c r="N27" t="n">
-        <v>1686.899415661551</v>
+        <v>1686.899415661552</v>
       </c>
       <c r="O27" t="n">
         <v>1899.910551020391</v>
@@ -6324,10 +6324,10 @@
         <v>2366.815841249539</v>
       </c>
       <c r="Q27" t="n">
-        <v>2626.231893500985</v>
+        <v>2626.231893500986</v>
       </c>
       <c r="R27" t="n">
-        <v>2619.364213622687</v>
+        <v>2619.364213622688</v>
       </c>
       <c r="S27" t="n">
         <v>2474.158816863971</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>569.7500878529252</v>
+        <v>569.7500878529257</v>
       </c>
       <c r="C28" t="n">
-        <v>480.452292814127</v>
+        <v>480.4522928141275</v>
       </c>
       <c r="D28" t="n">
-        <v>409.9740412909001</v>
+        <v>409.9740412909003</v>
       </c>
       <c r="E28" t="n">
-        <v>341.6993355976157</v>
+        <v>341.6993355976159</v>
       </c>
       <c r="F28" t="n">
         <v>274.4477759888141</v>
       </c>
       <c r="G28" t="n">
-        <v>185.6716576393853</v>
+        <v>185.6716576393852</v>
       </c>
       <c r="H28" t="n">
-        <v>112.7654689121259</v>
+        <v>112.7654689121256</v>
       </c>
       <c r="I28" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J28" t="n">
-        <v>147.5387775206253</v>
+        <v>147.5387775206252</v>
       </c>
       <c r="K28" t="n">
-        <v>348.5418679120226</v>
+        <v>348.5418679120223</v>
       </c>
       <c r="L28" t="n">
-        <v>639.4549246708311</v>
+        <v>639.4549246708309</v>
       </c>
       <c r="M28" t="n">
-        <v>952.3281006907841</v>
+        <v>952.3281006907857</v>
       </c>
       <c r="N28" t="n">
-        <v>1265.05240808124</v>
+        <v>1265.052408081242</v>
       </c>
       <c r="O28" t="n">
-        <v>1543.846092172783</v>
+        <v>1543.846092172784</v>
       </c>
       <c r="P28" t="n">
-        <v>1770.146828491806</v>
+        <v>1770.146828491808</v>
       </c>
       <c r="Q28" t="n">
-        <v>1867.40397633778</v>
+        <v>1867.403976337781</v>
       </c>
       <c r="R28" t="n">
-        <v>1825.212653282902</v>
+        <v>1825.212653282903</v>
       </c>
       <c r="S28" t="n">
-        <v>1700.762696556903</v>
+        <v>1700.762696556904</v>
       </c>
       <c r="T28" t="n">
-        <v>1555.593698849806</v>
+        <v>1555.593698849807</v>
       </c>
       <c r="U28" t="n">
-        <v>1346.090401522016</v>
+        <v>1346.090401522018</v>
       </c>
       <c r="V28" t="n">
-        <v>1171.044301205238</v>
+        <v>1171.044301205239</v>
       </c>
       <c r="W28" t="n">
-        <v>961.265519057386</v>
+        <v>961.2655190573871</v>
       </c>
       <c r="X28" t="n">
-        <v>812.9143560484774</v>
+        <v>812.9143560484783</v>
       </c>
       <c r="Y28" t="n">
-        <v>671.7601647940561</v>
+        <v>671.7601647940568</v>
       </c>
     </row>
     <row r="29">
@@ -6446,46 +6446,46 @@
         <v>1305.911541872702</v>
       </c>
       <c r="E29" t="n">
-        <v>999.7616771635668</v>
+        <v>999.7616771635664</v>
       </c>
       <c r="F29" t="n">
-        <v>668.414160263068</v>
+        <v>668.4141602630675</v>
       </c>
       <c r="G29" t="n">
-        <v>331.3935526738787</v>
+        <v>331.3935526738778</v>
       </c>
       <c r="H29" t="n">
-        <v>97.20013287956408</v>
+        <v>97.20013287956419</v>
       </c>
       <c r="I29" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J29" t="n">
         <v>297.9847176957859</v>
       </c>
       <c r="K29" t="n">
-        <v>754.909644004954</v>
+        <v>609.1967245554661</v>
       </c>
       <c r="L29" t="n">
-        <v>1374.042046699514</v>
+        <v>1228.329127250026</v>
       </c>
       <c r="M29" t="n">
-        <v>1989.821040480991</v>
+        <v>1933.839764763245</v>
       </c>
       <c r="N29" t="n">
-        <v>2259.142124984159</v>
+        <v>2636.134304434278</v>
       </c>
       <c r="O29" t="n">
-        <v>2877.111306236345</v>
+        <v>2877.111306236346</v>
       </c>
       <c r="P29" t="n">
-        <v>3366.859322305246</v>
+        <v>3366.859322305247</v>
       </c>
       <c r="Q29" t="n">
-        <v>3657.417926554303</v>
+        <v>3657.417926554304</v>
       </c>
       <c r="R29" t="n">
-        <v>3683.81667159148</v>
+        <v>3683.816671591481</v>
       </c>
       <c r="S29" t="n">
         <v>3617.010989453111</v>
@@ -6516,55 +6516,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>976.7539532415509</v>
+        <v>976.7539532415511</v>
       </c>
       <c r="C30" t="n">
-        <v>802.3009239604239</v>
+        <v>802.3009239604241</v>
       </c>
       <c r="D30" t="n">
-        <v>653.3665142991726</v>
+        <v>653.3665142991729</v>
       </c>
       <c r="E30" t="n">
-        <v>494.1290592937172</v>
+        <v>494.1290592937173</v>
       </c>
       <c r="F30" t="n">
-        <v>347.5945013206022</v>
+        <v>347.5945013206023</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3825245682142</v>
+        <v>210.3825245682143</v>
       </c>
       <c r="H30" t="n">
-        <v>111.6822695035226</v>
+        <v>111.6822695035227</v>
       </c>
       <c r="I30" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J30" t="n">
-        <v>213.5794907501699</v>
+        <v>88.74936576316517</v>
       </c>
       <c r="K30" t="n">
-        <v>579.3171131690667</v>
+        <v>454.486988182062</v>
       </c>
       <c r="L30" t="n">
-        <v>1132.500877624054</v>
+        <v>640.5388107866245</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.761528752946</v>
+        <v>1338.057393553374</v>
       </c>
       <c r="N30" t="n">
-        <v>1686.899415661551</v>
+        <v>1595.195280461979</v>
       </c>
       <c r="O30" t="n">
-        <v>1899.910551020391</v>
+        <v>2107.887065878881</v>
       </c>
       <c r="P30" t="n">
-        <v>2366.815841249539</v>
+        <v>2574.792356108029</v>
       </c>
       <c r="Q30" t="n">
-        <v>2626.231893500985</v>
+        <v>2626.231893500986</v>
       </c>
       <c r="R30" t="n">
-        <v>2619.364213622687</v>
+        <v>2619.364213622688</v>
       </c>
       <c r="S30" t="n">
         <v>2474.158816863971</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>569.7500878529247</v>
+        <v>569.7500878529253</v>
       </c>
       <c r="C31" t="n">
-        <v>480.4522928141265</v>
+        <v>480.4522928141271</v>
       </c>
       <c r="D31" t="n">
-        <v>409.9740412908995</v>
+        <v>409.9740412909</v>
       </c>
       <c r="E31" t="n">
-        <v>341.6993355976152</v>
+        <v>341.6993355976156</v>
       </c>
       <c r="F31" t="n">
-        <v>274.4477759888136</v>
+        <v>274.4477759888139</v>
       </c>
       <c r="G31" t="n">
-        <v>185.6716576393848</v>
+        <v>185.671657639385</v>
       </c>
       <c r="H31" t="n">
-        <v>112.7654689121254</v>
+        <v>112.7654689121255</v>
       </c>
       <c r="I31" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J31" t="n">
         <v>147.5387775206253</v>
       </c>
       <c r="K31" t="n">
-        <v>348.5418679120226</v>
+        <v>348.541867912023</v>
       </c>
       <c r="L31" t="n">
-        <v>639.4549246708312</v>
+        <v>639.4549246708315</v>
       </c>
       <c r="M31" t="n">
-        <v>952.3281006907843</v>
+        <v>952.3281006907844</v>
       </c>
       <c r="N31" t="n">
         <v>1265.05240808124</v>
       </c>
       <c r="O31" t="n">
-        <v>1543.846092172781</v>
+        <v>1543.846092172783</v>
       </c>
       <c r="P31" t="n">
-        <v>1770.146828491805</v>
+        <v>1770.146828491807</v>
       </c>
       <c r="Q31" t="n">
-        <v>1867.403976337779</v>
+        <v>1867.40397633778</v>
       </c>
       <c r="R31" t="n">
-        <v>1825.212653282901</v>
+        <v>1825.212653282902</v>
       </c>
       <c r="S31" t="n">
-        <v>1700.762696556902</v>
+        <v>1700.762696556903</v>
       </c>
       <c r="T31" t="n">
-        <v>1555.593698849804</v>
+        <v>1555.593698849806</v>
       </c>
       <c r="U31" t="n">
         <v>1346.090401522016</v>
       </c>
       <c r="V31" t="n">
-        <v>1171.044301205237</v>
+        <v>1171.044301205238</v>
       </c>
       <c r="W31" t="n">
-        <v>961.2655190573855</v>
+        <v>961.2655190573864</v>
       </c>
       <c r="X31" t="n">
-        <v>812.914356048477</v>
+        <v>812.9143560484778</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.7601647940556</v>
+        <v>671.7601647940563</v>
       </c>
     </row>
     <row r="32">
@@ -6683,67 +6683,67 @@
         <v>1305.911541872701</v>
       </c>
       <c r="E32" t="n">
-        <v>999.7616771635659</v>
+        <v>999.7616771635662</v>
       </c>
       <c r="F32" t="n">
-        <v>668.4141602630671</v>
+        <v>668.4141602630677</v>
       </c>
       <c r="G32" t="n">
-        <v>331.3935526738783</v>
+        <v>331.3935526738782</v>
       </c>
       <c r="H32" t="n">
-        <v>97.20013287956408</v>
+        <v>97.20013287956418</v>
       </c>
       <c r="I32" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J32" t="n">
         <v>297.9847176957859</v>
       </c>
       <c r="K32" t="n">
-        <v>609.1967245554652</v>
+        <v>703.6216883004299</v>
       </c>
       <c r="L32" t="n">
-        <v>1228.329127250026</v>
+        <v>1322.75409099499</v>
       </c>
       <c r="M32" t="n">
-        <v>1933.839764763244</v>
+        <v>1583.246330350305</v>
       </c>
       <c r="N32" t="n">
-        <v>2636.134304434277</v>
+        <v>2285.540870021337</v>
       </c>
       <c r="O32" t="n">
-        <v>2877.111306236345</v>
+        <v>2903.510051273523</v>
       </c>
       <c r="P32" t="n">
-        <v>3366.859322305246</v>
+        <v>3393.258067342425</v>
       </c>
       <c r="Q32" t="n">
-        <v>3657.417926554303</v>
+        <v>3683.816671591482</v>
       </c>
       <c r="R32" t="n">
-        <v>3683.81667159148</v>
+        <v>3683.816671591482</v>
       </c>
       <c r="S32" t="n">
-        <v>3617.01098945311</v>
+        <v>3617.010989453112</v>
       </c>
       <c r="T32" t="n">
-        <v>3483.726527573719</v>
+        <v>3483.72652757372</v>
       </c>
       <c r="U32" t="n">
-        <v>3309.7075151108</v>
+        <v>3309.707515110802</v>
       </c>
       <c r="V32" t="n">
-        <v>3058.283015656338</v>
+        <v>3058.28301565634</v>
       </c>
       <c r="W32" t="n">
-        <v>2785.152748275333</v>
+        <v>2785.152748275334</v>
       </c>
       <c r="X32" t="n">
-        <v>2491.325377903362</v>
+        <v>2491.325377903363</v>
       </c>
       <c r="Y32" t="n">
-        <v>2180.824433816659</v>
+        <v>2180.82443381666</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>976.7539532415509</v>
+        <v>976.7539532415511</v>
       </c>
       <c r="C33" t="n">
-        <v>802.3009239604239</v>
+        <v>802.3009239604241</v>
       </c>
       <c r="D33" t="n">
-        <v>653.3665142991726</v>
+        <v>653.3665142991729</v>
       </c>
       <c r="E33" t="n">
-        <v>494.1290592937172</v>
+        <v>494.1290592937173</v>
       </c>
       <c r="F33" t="n">
-        <v>347.5945013206022</v>
+        <v>347.5945013206023</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3825245682142</v>
+        <v>210.3825245682143</v>
       </c>
       <c r="H33" t="n">
-        <v>111.6822695035226</v>
+        <v>111.6822695035227</v>
       </c>
       <c r="I33" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J33" t="n">
         <v>213.5794907501699</v>
@@ -6786,10 +6786,10 @@
         <v>1132.500877624054</v>
       </c>
       <c r="M33" t="n">
-        <v>1429.761528752946</v>
+        <v>1368.971447278304</v>
       </c>
       <c r="N33" t="n">
-        <v>1686.899415661551</v>
+        <v>1626.109334186909</v>
       </c>
       <c r="O33" t="n">
         <v>1899.910551020391</v>
@@ -6798,10 +6798,10 @@
         <v>2366.815841249539</v>
       </c>
       <c r="Q33" t="n">
-        <v>2626.231893500985</v>
+        <v>2626.231893500986</v>
       </c>
       <c r="R33" t="n">
-        <v>2619.364213622687</v>
+        <v>2619.364213622688</v>
       </c>
       <c r="S33" t="n">
         <v>2474.158816863971</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.7500878529247</v>
+        <v>569.7500878529244</v>
       </c>
       <c r="C34" t="n">
-        <v>480.4522928141265</v>
+        <v>480.4522928141262</v>
       </c>
       <c r="D34" t="n">
-        <v>409.9740412908995</v>
+        <v>409.9740412908991</v>
       </c>
       <c r="E34" t="n">
-        <v>341.6993355976152</v>
+        <v>341.6993355976147</v>
       </c>
       <c r="F34" t="n">
-        <v>274.4477759888136</v>
+        <v>274.447775988813</v>
       </c>
       <c r="G34" t="n">
-        <v>185.6716576393848</v>
+        <v>185.6716576393842</v>
       </c>
       <c r="H34" t="n">
-        <v>112.7654689121254</v>
+        <v>112.7654689121255</v>
       </c>
       <c r="I34" t="n">
-        <v>73.6763334318296</v>
+        <v>73.67633343182963</v>
       </c>
       <c r="J34" t="n">
-        <v>147.5387775206239</v>
+        <v>147.5387775206253</v>
       </c>
       <c r="K34" t="n">
-        <v>348.5418679120211</v>
+        <v>348.5418679120224</v>
       </c>
       <c r="L34" t="n">
-        <v>639.4549246708298</v>
+        <v>639.4549246708312</v>
       </c>
       <c r="M34" t="n">
-        <v>952.3281006907828</v>
+        <v>952.3281006907837</v>
       </c>
       <c r="N34" t="n">
         <v>1265.052408081239</v>
       </c>
       <c r="O34" t="n">
-        <v>1543.846092172781</v>
+        <v>1543.846092172782</v>
       </c>
       <c r="P34" t="n">
-        <v>1770.146828491805</v>
+        <v>1770.146828491806</v>
       </c>
       <c r="Q34" t="n">
-        <v>1867.403976337779</v>
+        <v>1867.40397633778</v>
       </c>
       <c r="R34" t="n">
         <v>1825.212653282901</v>
@@ -6886,22 +6886,22 @@
         <v>1700.762696556902</v>
       </c>
       <c r="T34" t="n">
-        <v>1555.593698849804</v>
+        <v>1555.593698849805</v>
       </c>
       <c r="U34" t="n">
         <v>1346.090401522016</v>
       </c>
       <c r="V34" t="n">
-        <v>1171.044301205237</v>
+        <v>1171.044301205238</v>
       </c>
       <c r="W34" t="n">
-        <v>961.2655190573855</v>
+        <v>961.2655190573857</v>
       </c>
       <c r="X34" t="n">
-        <v>812.914356048477</v>
+        <v>812.9143560484769</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.7601647940556</v>
+        <v>671.7601647940554</v>
       </c>
     </row>
     <row r="35">
@@ -6917,58 +6917,58 @@
         <v>1020.260867907514</v>
       </c>
       <c r="D35" t="n">
-        <v>843.9848191857388</v>
+        <v>843.9848191857391</v>
       </c>
       <c r="E35" t="n">
-        <v>640.1862164724698</v>
+        <v>640.1862164724699</v>
       </c>
       <c r="F35" t="n">
-        <v>411.1899615678374</v>
+        <v>411.1899615678375</v>
       </c>
       <c r="G35" t="n">
-        <v>176.5206159745146</v>
+        <v>176.5206159745147</v>
       </c>
       <c r="H35" t="n">
-        <v>44.67845817606699</v>
+        <v>44.678458176067</v>
       </c>
       <c r="I35" t="n">
-        <v>44.67845817606699</v>
+        <v>44.678458176067</v>
       </c>
       <c r="J35" t="n">
-        <v>101.5811934196703</v>
+        <v>213.0313722608794</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6021612833852</v>
+        <v>349.0523401245944</v>
       </c>
       <c r="L35" t="n">
-        <v>609.221263631561</v>
+        <v>554.7001404142087</v>
       </c>
       <c r="M35" t="n">
-        <v>1162.11718356039</v>
+        <v>815.1923797695233</v>
       </c>
       <c r="N35" t="n">
-        <v>1715.013103489219</v>
+        <v>1084.513464272691</v>
       </c>
       <c r="O35" t="n">
-        <v>1955.990105291287</v>
+        <v>1637.409384201521</v>
       </c>
       <c r="P35" t="n">
         <v>2127.157400270421</v>
       </c>
       <c r="Q35" t="n">
-        <v>2207.524163766172</v>
+        <v>2207.524163766173</v>
       </c>
       <c r="R35" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="S35" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="T35" t="n">
-        <v>2202.989708919825</v>
+        <v>2202.989708919826</v>
       </c>
       <c r="U35" t="n">
-        <v>2131.321958452773</v>
+        <v>2131.321958452774</v>
       </c>
       <c r="V35" t="n">
         <v>1982.248720994178</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>810.5441012334003</v>
+        <v>711.8438461687089</v>
       </c>
       <c r="C36" t="n">
-        <v>636.0910719522733</v>
+        <v>537.3908168875819</v>
       </c>
       <c r="D36" t="n">
-        <v>487.1566622910221</v>
+        <v>388.4564072263306</v>
       </c>
       <c r="E36" t="n">
-        <v>327.9192072855666</v>
+        <v>229.2189522208751</v>
       </c>
       <c r="F36" t="n">
-        <v>181.3846493124516</v>
+        <v>82.68439424776003</v>
       </c>
       <c r="G36" t="n">
-        <v>181.3846493124516</v>
+        <v>82.68439424776003</v>
       </c>
       <c r="H36" t="n">
         <v>82.68439424776003</v>
       </c>
       <c r="I36" t="n">
-        <v>44.67845817606699</v>
+        <v>44.678458176067</v>
       </c>
       <c r="J36" t="n">
         <v>184.5816154944073</v>
@@ -7020,46 +7020,46 @@
         <v>550.3192379133041</v>
       </c>
       <c r="L36" t="n">
-        <v>736.3710605178666</v>
+        <v>800.9819744010612</v>
       </c>
       <c r="M36" t="n">
-        <v>1264.949166847114</v>
+        <v>1037.452544055311</v>
       </c>
       <c r="N36" t="n">
-        <v>1817.845086775943</v>
+        <v>1294.590430963916</v>
       </c>
       <c r="O36" t="n">
-        <v>2030.856222134783</v>
+        <v>1507.601566322755</v>
       </c>
       <c r="P36" t="n">
-        <v>2182.483371410393</v>
+        <v>1974.506856551903</v>
       </c>
       <c r="Q36" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="R36" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="S36" t="n">
-        <v>2233.922908803349</v>
+        <v>2209.248709791128</v>
       </c>
       <c r="T36" t="n">
-        <v>2111.884396193234</v>
+        <v>2013.184141128543</v>
       </c>
       <c r="U36" t="n">
-        <v>1883.760702183899</v>
+        <v>1785.060447119208</v>
       </c>
       <c r="V36" t="n">
-        <v>1648.608593952157</v>
+        <v>1549.908338887465</v>
       </c>
       <c r="W36" t="n">
-        <v>1394.371237223955</v>
+        <v>1295.670982159264</v>
       </c>
       <c r="X36" t="n">
-        <v>1186.519737018422</v>
+        <v>1087.819481953731</v>
       </c>
       <c r="Y36" t="n">
-        <v>978.7594382534683</v>
+        <v>880.0591831887768</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.2230347924352</v>
+        <v>344.1129822903455</v>
       </c>
       <c r="C37" t="n">
-        <v>197.2230347924352</v>
+        <v>344.1129822903455</v>
       </c>
       <c r="D37" t="n">
-        <v>197.2230347924352</v>
+        <v>344.1129822903455</v>
       </c>
       <c r="E37" t="n">
-        <v>197.2230347924352</v>
+        <v>344.1129822903455</v>
       </c>
       <c r="F37" t="n">
         <v>197.2230347924352</v>
@@ -7087,13 +7087,13 @@
         <v>197.2230347924352</v>
       </c>
       <c r="H37" t="n">
-        <v>44.67845817606699</v>
+        <v>44.678458176067</v>
       </c>
       <c r="I37" t="n">
-        <v>44.67845817606699</v>
+        <v>44.678458176067</v>
       </c>
       <c r="J37" t="n">
-        <v>44.67845817606699</v>
+        <v>44.678458176067</v>
       </c>
       <c r="K37" t="n">
         <v>167.6279645973488</v>
@@ -7120,25 +7120,25 @@
         <v>1218.168569202413</v>
       </c>
       <c r="S37" t="n">
-        <v>1196.069874472281</v>
+        <v>1014.080224587306</v>
       </c>
       <c r="T37" t="n">
-        <v>971.2624888760751</v>
+        <v>971.2624888760749</v>
       </c>
       <c r="U37" t="n">
-        <v>682.1208036591773</v>
+        <v>864.1104535441523</v>
       </c>
       <c r="V37" t="n">
-        <v>427.4363154532905</v>
+        <v>791.4156152232405</v>
       </c>
       <c r="W37" t="n">
-        <v>320.008795301305</v>
+        <v>683.988095071255</v>
       </c>
       <c r="X37" t="n">
-        <v>274.0088942882628</v>
+        <v>637.9881940582127</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.2230347924352</v>
+        <v>417.1956149146826</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1207.233734962951</v>
+        <v>1207.233734962952</v>
       </c>
       <c r="C38" t="n">
-        <v>1020.260867907514</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D38" t="n">
-        <v>843.9848191857391</v>
+        <v>843.98481918574</v>
       </c>
       <c r="E38" t="n">
-        <v>640.1862164724703</v>
+        <v>640.1862164724708</v>
       </c>
       <c r="F38" t="n">
-        <v>411.189961567838</v>
+        <v>411.1899615678384</v>
       </c>
       <c r="G38" t="n">
-        <v>176.5206159745145</v>
+        <v>176.5206159745147</v>
       </c>
       <c r="H38" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I38" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J38" t="n">
         <v>268.9868424400233</v>
       </c>
       <c r="K38" t="n">
-        <v>450.7794174980486</v>
+        <v>477.1781625352278</v>
       </c>
       <c r="L38" t="n">
-        <v>656.4272177876629</v>
+        <v>682.8259628248421</v>
       </c>
       <c r="M38" t="n">
-        <v>916.9194571429775</v>
+        <v>943.3182021801567</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.240541646146</v>
+        <v>1212.639286683325</v>
       </c>
       <c r="O38" t="n">
-        <v>1427.217543448214</v>
+        <v>1453.616288485393</v>
       </c>
       <c r="P38" t="n">
-        <v>1916.965559517115</v>
+        <v>1943.364304554294</v>
       </c>
       <c r="Q38" t="n">
-        <v>2207.524163766172</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R38" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S38" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T38" t="n">
-        <v>2202.989708919825</v>
+        <v>2202.989708919827</v>
       </c>
       <c r="U38" t="n">
-        <v>2131.321958452773</v>
+        <v>2131.321958452775</v>
       </c>
       <c r="V38" t="n">
-        <v>1982.248720994177</v>
+        <v>1982.248720994179</v>
       </c>
       <c r="W38" t="n">
-        <v>1811.469715609038</v>
+        <v>1811.46971560904</v>
       </c>
       <c r="X38" t="n">
-        <v>1619.993607232934</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y38" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142099</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>584.4449685439149</v>
+        <v>947.7560779857885</v>
       </c>
       <c r="C39" t="n">
-        <v>409.9919392627879</v>
+        <v>773.3030487046615</v>
       </c>
       <c r="D39" t="n">
-        <v>261.0575296015367</v>
+        <v>624.3686390434102</v>
       </c>
       <c r="E39" t="n">
-        <v>101.8200745960812</v>
+        <v>465.1311840379547</v>
       </c>
       <c r="F39" t="n">
-        <v>44.67845817606699</v>
+        <v>318.5966260648397</v>
       </c>
       <c r="G39" t="n">
-        <v>44.67845817606699</v>
+        <v>181.3846493124516</v>
       </c>
       <c r="H39" t="n">
-        <v>44.67845817606699</v>
+        <v>82.68439424776005</v>
       </c>
       <c r="I39" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J39" t="n">
         <v>184.5816154944073</v>
@@ -7266,37 +7266,37 @@
         <v>1229.979517080721</v>
       </c>
       <c r="O39" t="n">
-        <v>1507.601566322754</v>
+        <v>1507.601566322756</v>
       </c>
       <c r="P39" t="n">
-        <v>1974.506856551903</v>
+        <v>1974.506856551904</v>
       </c>
       <c r="Q39" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R39" t="n">
-        <v>2227.055228925051</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S39" t="n">
-        <v>2081.849832166335</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="T39" t="n">
-        <v>1885.785263503749</v>
+        <v>2212.980310147442</v>
       </c>
       <c r="U39" t="n">
-        <v>1657.661569494414</v>
+        <v>2020.972678936287</v>
       </c>
       <c r="V39" t="n">
-        <v>1422.509461262671</v>
+        <v>1785.820570704545</v>
       </c>
       <c r="W39" t="n">
-        <v>1168.27210453447</v>
+        <v>1531.583213976343</v>
       </c>
       <c r="X39" t="n">
-        <v>960.4206043289369</v>
+        <v>1323.73171377081</v>
       </c>
       <c r="Y39" t="n">
-        <v>752.660305563983</v>
+        <v>1115.971415005856</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>489.5981386687062</v>
+        <v>510.62122801422</v>
       </c>
       <c r="C40" t="n">
-        <v>489.5981386687062</v>
+        <v>341.6850450863132</v>
       </c>
       <c r="D40" t="n">
-        <v>339.4814992563705</v>
+        <v>191.5684056739774</v>
       </c>
       <c r="E40" t="n">
-        <v>191.5684056739773</v>
+        <v>191.5684056739774</v>
       </c>
       <c r="F40" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="G40" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H40" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I40" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J40" t="n">
-        <v>44.67845817606699</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K40" t="n">
         <v>167.6279645973488</v>
@@ -7363,19 +7363,19 @@
         <v>1153.25213876105</v>
       </c>
       <c r="U40" t="n">
-        <v>1046.100103429128</v>
+        <v>957.1948815889543</v>
       </c>
       <c r="V40" t="n">
-        <v>973.4052651082162</v>
+        <v>884.5000432680425</v>
       </c>
       <c r="W40" t="n">
-        <v>865.9777449562308</v>
+        <v>777.072523116057</v>
       </c>
       <c r="X40" t="n">
-        <v>819.9778439431888</v>
+        <v>731.0726221030147</v>
       </c>
       <c r="Y40" t="n">
-        <v>671.2466034989459</v>
+        <v>692.2696928444598</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1207.23373496295</v>
+        <v>1207.233734962952</v>
       </c>
       <c r="C41" t="n">
-        <v>1020.260867907514</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D41" t="n">
-        <v>843.9848191857388</v>
+        <v>843.9848191857401</v>
       </c>
       <c r="E41" t="n">
-        <v>640.1862164724698</v>
+        <v>640.186216472471</v>
       </c>
       <c r="F41" t="n">
-        <v>411.1899615678376</v>
+        <v>411.1899615678385</v>
       </c>
       <c r="G41" t="n">
-        <v>176.5206159745145</v>
+        <v>176.5206159745147</v>
       </c>
       <c r="H41" t="n">
-        <v>44.67845817606698</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I41" t="n">
-        <v>44.67845817606698</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J41" t="n">
-        <v>101.5811934196703</v>
+        <v>268.9868424400233</v>
       </c>
       <c r="K41" t="n">
-        <v>558.5061197288383</v>
+        <v>405.0078103037383</v>
       </c>
       <c r="L41" t="n">
-        <v>764.1539200184526</v>
+        <v>899.6796065411544</v>
       </c>
       <c r="M41" t="n">
-        <v>1024.646159373767</v>
+        <v>1160.171845896469</v>
       </c>
       <c r="N41" t="n">
-        <v>1293.967243876935</v>
+        <v>1429.492930399637</v>
       </c>
       <c r="O41" t="n">
-        <v>1663.808129238697</v>
+        <v>1982.388850328467</v>
       </c>
       <c r="P41" t="n">
-        <v>2153.556145307597</v>
+        <v>2153.5561453076</v>
       </c>
       <c r="Q41" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R41" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S41" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T41" t="n">
-        <v>2202.989708919824</v>
+        <v>2202.989708919827</v>
       </c>
       <c r="U41" t="n">
-        <v>2131.321958452772</v>
+        <v>2131.321958452775</v>
       </c>
       <c r="V41" t="n">
-        <v>1982.248720994177</v>
+        <v>1982.248720994179</v>
       </c>
       <c r="W41" t="n">
-        <v>1811.469715609038</v>
+        <v>1811.46971560904</v>
       </c>
       <c r="X41" t="n">
-        <v>1619.993607232933</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y41" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142099</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>918.5076950659045</v>
+        <v>584.4449685439167</v>
       </c>
       <c r="C42" t="n">
-        <v>744.0546657847775</v>
+        <v>409.9919392627897</v>
       </c>
       <c r="D42" t="n">
-        <v>595.1202561235262</v>
+        <v>261.0575296015385</v>
       </c>
       <c r="E42" t="n">
-        <v>435.8828011180707</v>
+        <v>101.820074596083</v>
       </c>
       <c r="F42" t="n">
-        <v>289.3482431449557</v>
+        <v>82.68439424776005</v>
       </c>
       <c r="G42" t="n">
-        <v>181.3846493124516</v>
+        <v>82.68439424776005</v>
       </c>
       <c r="H42" t="n">
-        <v>82.68439424776001</v>
+        <v>82.68439424776005</v>
       </c>
       <c r="I42" t="n">
-        <v>44.67845817606698</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J42" t="n">
         <v>184.5816154944073</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4986532708513</v>
+        <v>550.3192379133041</v>
       </c>
       <c r="L42" t="n">
-        <v>841.3945731996802</v>
+        <v>736.3710605178666</v>
       </c>
       <c r="M42" t="n">
-        <v>1077.86514285393</v>
+        <v>972.8416301721165</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.003029762535</v>
+        <v>1229.979517080721</v>
       </c>
       <c r="O42" t="n">
-        <v>1548.014165121374</v>
+        <v>1507.601566322756</v>
       </c>
       <c r="P42" t="n">
-        <v>2014.919455350522</v>
+        <v>1974.506856551904</v>
       </c>
       <c r="Q42" t="n">
-        <v>2233.922908803349</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R42" t="n">
-        <v>2233.922908803349</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S42" t="n">
-        <v>2233.922908803349</v>
+        <v>2081.849832166336</v>
       </c>
       <c r="T42" t="n">
-        <v>2219.847990025738</v>
+        <v>1885.785263503751</v>
       </c>
       <c r="U42" t="n">
-        <v>1991.724296016404</v>
+        <v>1657.661569494416</v>
       </c>
       <c r="V42" t="n">
-        <v>1756.572187784661</v>
+        <v>1422.509461262673</v>
       </c>
       <c r="W42" t="n">
-        <v>1502.334831056459</v>
+        <v>1168.272104534472</v>
       </c>
       <c r="X42" t="n">
-        <v>1294.483330850926</v>
+        <v>960.4206043289387</v>
       </c>
       <c r="Y42" t="n">
-        <v>1086.723032085973</v>
+        <v>752.6603055639848</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>194.7950975884027</v>
+        <v>660.4405821112763</v>
       </c>
       <c r="C43" t="n">
-        <v>194.7950975884027</v>
+        <v>660.4405821112763</v>
       </c>
       <c r="D43" t="n">
-        <v>44.67845817606698</v>
+        <v>660.4405821112763</v>
       </c>
       <c r="E43" t="n">
-        <v>44.67845817606698</v>
+        <v>512.5274885288832</v>
       </c>
       <c r="F43" t="n">
-        <v>44.67845817606698</v>
+        <v>365.6375410309728</v>
       </c>
       <c r="G43" t="n">
-        <v>44.67845817606698</v>
+        <v>197.2230347924352</v>
       </c>
       <c r="H43" t="n">
-        <v>44.67845817606698</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I43" t="n">
-        <v>44.67845817606698</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J43" t="n">
-        <v>44.67845817606698</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K43" t="n">
         <v>167.6279645973488</v>
       </c>
       <c r="L43" t="n">
-        <v>380.4874373860419</v>
+        <v>380.487437386042</v>
       </c>
       <c r="M43" t="n">
-        <v>615.3070294358794</v>
+        <v>615.3070294358795</v>
       </c>
       <c r="N43" t="n">
-        <v>849.9777528562197</v>
+        <v>849.9777528562199</v>
       </c>
       <c r="O43" t="n">
         <v>1050.717852977647</v>
@@ -7591,28 +7591,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R43" t="n">
-        <v>1218.168569202413</v>
+        <v>1097.434236629057</v>
       </c>
       <c r="S43" t="n">
-        <v>1196.069874472281</v>
+        <v>1075.335541898924</v>
       </c>
       <c r="T43" t="n">
-        <v>1153.25213876105</v>
+        <v>1032.517806187693</v>
       </c>
       <c r="U43" t="n">
-        <v>864.1104535441523</v>
+        <v>925.3657708557708</v>
       </c>
       <c r="V43" t="n">
-        <v>609.4259653382654</v>
+        <v>852.670932534859</v>
       </c>
       <c r="W43" t="n">
-        <v>320.0087953013048</v>
+        <v>745.2434123828735</v>
       </c>
       <c r="X43" t="n">
-        <v>233.5980268469575</v>
+        <v>699.2435113698313</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.7950975884027</v>
+        <v>660.4405821112763</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1207.23373496295</v>
+        <v>1207.233734962951</v>
       </c>
       <c r="C44" t="n">
-        <v>1020.260867907513</v>
+        <v>1020.260867907514</v>
       </c>
       <c r="D44" t="n">
-        <v>843.9848191857382</v>
+        <v>843.9848191857388</v>
       </c>
       <c r="E44" t="n">
-        <v>640.1862164724694</v>
+        <v>640.1862164724701</v>
       </c>
       <c r="F44" t="n">
-        <v>411.1899615678371</v>
+        <v>411.1899615678376</v>
       </c>
       <c r="G44" t="n">
-        <v>176.5206159745145</v>
+        <v>176.5206159745147</v>
       </c>
       <c r="H44" t="n">
-        <v>44.67845817606696</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I44" t="n">
-        <v>44.67845817606696</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J44" t="n">
         <v>268.9868424400233</v>
       </c>
       <c r="K44" t="n">
-        <v>476.9564580143008</v>
+        <v>725.9117687491914</v>
       </c>
       <c r="L44" t="n">
-        <v>682.6042583039151</v>
+        <v>931.5595690388058</v>
       </c>
       <c r="M44" t="n">
-        <v>1235.500178232744</v>
+        <v>1192.05180839412</v>
       </c>
       <c r="N44" t="n">
-        <v>1504.821262735912</v>
+        <v>1461.372892897288</v>
       </c>
       <c r="O44" t="n">
-        <v>1745.79826453798</v>
+        <v>1702.349894699357</v>
       </c>
       <c r="P44" t="n">
-        <v>1916.965559517113</v>
+        <v>1943.364304554294</v>
       </c>
       <c r="Q44" t="n">
-        <v>2207.524163766171</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R44" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S44" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T44" t="n">
-        <v>2202.989708919823</v>
+        <v>2202.989708919826</v>
       </c>
       <c r="U44" t="n">
-        <v>2131.321958452771</v>
+        <v>2131.321958452773</v>
       </c>
       <c r="V44" t="n">
-        <v>1982.248720994176</v>
+        <v>1982.248720994178</v>
       </c>
       <c r="W44" t="n">
-        <v>1811.469715609037</v>
+        <v>1811.469715609039</v>
       </c>
       <c r="X44" t="n">
-        <v>1619.993607232933</v>
+        <v>1619.993607232934</v>
       </c>
       <c r="Y44" t="n">
-        <v>1411.843925142096</v>
+        <v>1411.843925142097</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>736.5180451809283</v>
+        <v>849.0558229210968</v>
       </c>
       <c r="C45" t="n">
-        <v>562.0650158998013</v>
+        <v>674.6027936399698</v>
       </c>
       <c r="D45" t="n">
-        <v>413.1306062385501</v>
+        <v>525.6683839787186</v>
       </c>
       <c r="E45" t="n">
-        <v>253.8931512330946</v>
+        <v>366.4309289732631</v>
       </c>
       <c r="F45" t="n">
-        <v>107.3585932599795</v>
+        <v>219.8963710001481</v>
       </c>
       <c r="G45" t="n">
-        <v>44.67845817606696</v>
+        <v>82.68439424776005</v>
       </c>
       <c r="H45" t="n">
-        <v>44.67845817606696</v>
+        <v>82.68439424776005</v>
       </c>
       <c r="I45" t="n">
-        <v>44.67845817606696</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J45" t="n">
-        <v>184.5816154944072</v>
+        <v>184.5816154944073</v>
       </c>
       <c r="K45" t="n">
         <v>550.3192379133041</v>
@@ -7734,43 +7734,43 @@
         <v>736.3710605178666</v>
       </c>
       <c r="M45" t="n">
-        <v>1037.452544055309</v>
+        <v>972.8416301721165</v>
       </c>
       <c r="N45" t="n">
-        <v>1294.590430963914</v>
+        <v>1229.979517080721</v>
       </c>
       <c r="O45" t="n">
-        <v>1507.601566322753</v>
+        <v>1507.601566322756</v>
       </c>
       <c r="P45" t="n">
-        <v>1974.506856551901</v>
+        <v>1974.506856551904</v>
       </c>
       <c r="Q45" t="n">
-        <v>2233.922908803348</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R45" t="n">
-        <v>2233.922908803348</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S45" t="n">
-        <v>2233.922908803348</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="T45" t="n">
-        <v>2037.858340140762</v>
+        <v>2150.39611788093</v>
       </c>
       <c r="U45" t="n">
-        <v>1809.734646131427</v>
+        <v>1922.272423871596</v>
       </c>
       <c r="V45" t="n">
-        <v>1574.582537899685</v>
+        <v>1687.120315639853</v>
       </c>
       <c r="W45" t="n">
-        <v>1320.345181171483</v>
+        <v>1432.882958911651</v>
       </c>
       <c r="X45" t="n">
-        <v>1112.49368096595</v>
+        <v>1225.031458706119</v>
       </c>
       <c r="Y45" t="n">
-        <v>904.7333822009964</v>
+        <v>1017.271159941165</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.7950975884027</v>
+        <v>417.5367999694181</v>
       </c>
       <c r="C46" t="n">
-        <v>194.7950975884027</v>
+        <v>248.6006170415112</v>
       </c>
       <c r="D46" t="n">
-        <v>44.67845817606696</v>
+        <v>248.6006170415112</v>
       </c>
       <c r="E46" t="n">
-        <v>44.67845817606696</v>
+        <v>100.6875234591181</v>
       </c>
       <c r="F46" t="n">
-        <v>44.67845817606696</v>
+        <v>100.6875234591181</v>
       </c>
       <c r="G46" t="n">
-        <v>44.67845817606696</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H46" t="n">
-        <v>44.67845817606696</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I46" t="n">
-        <v>44.67845817606696</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J46" t="n">
-        <v>44.67845817606696</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K46" t="n">
         <v>167.6279645973488</v>
       </c>
       <c r="L46" t="n">
-        <v>380.4874373860419</v>
+        <v>380.487437386042</v>
       </c>
       <c r="M46" t="n">
-        <v>615.3070294358794</v>
+        <v>615.3070294358795</v>
       </c>
       <c r="N46" t="n">
-        <v>849.9777528562197</v>
+        <v>849.9777528562199</v>
       </c>
       <c r="O46" t="n">
         <v>1050.717852977647</v>
@@ -7831,25 +7831,25 @@
         <v>1218.168569202413</v>
       </c>
       <c r="S46" t="n">
-        <v>1014.080224587306</v>
+        <v>1196.069874472281</v>
       </c>
       <c r="T46" t="n">
-        <v>789.2728389910997</v>
+        <v>1153.25213876105</v>
       </c>
       <c r="U46" t="n">
-        <v>682.1208036591772</v>
+        <v>1046.100103429128</v>
       </c>
       <c r="V46" t="n">
-        <v>609.4259653382657</v>
+        <v>973.4052651082158</v>
       </c>
       <c r="W46" t="n">
-        <v>501.9984451862803</v>
+        <v>865.9777449562303</v>
       </c>
       <c r="X46" t="n">
-        <v>415.5876767319328</v>
+        <v>819.977843943188</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.7950975884027</v>
+        <v>599.1852647996578</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>208.2502184139051</v>
+        <v>82.15918307349588</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9009,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>174.5423067530303</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>33.7079116608748</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>147.3106777083062</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.93954070559889</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="R17" t="n">
         <v>39.05102084553056</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>208.2502184139045</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>208.2502184139042</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>33.7079116608744</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>174.5423067530302</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>208.2502184139042</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>211.0889713238798</v>
+        <v>237.7543703513344</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>235.9273010293871</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>269.359812893732</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>176.6447758715067</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>176.9606454504693</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>32.79414947539868</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>61.40412270165945</v>
+        <v>61.40412270165962</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>176.9606454504699</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>358.8755095213755</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>61.40412270165911</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>302.7077273313762</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>176.960645450469</v>
+        <v>272.3393967080091</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>61.40412270165911</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>61.40412270165956</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>112.5759382234436</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>167.6477798571328</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>295.35725310456</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>286.4392277026877</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>315.0696142694555</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>65.26354937696428</v>
       </c>
       <c r="M36" t="n">
-        <v>295.058117853533</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>298.7454878992164</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>46.23394666091951</v>
+        <v>72.89934568837324</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>65.2635493769634</v>
+        <v>65.26354937696527</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>291.9434302503048</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,10 +11072,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>130.1655389491849</v>
+        <v>315.0696142694557</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.5495932568347</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>65.26354937696527</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>169.2564808685558</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>72.67540172784098</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>295.3572531045596</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>70.55264128869101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>65.26354937696198</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>65.26354937696527</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.9879130210782</v>
       </c>
       <c r="C11" t="n">
         <v>222.5269631286052</v>
       </c>
       <c r="D11" t="n">
-        <v>110.7248731339732</v>
+        <v>211.9371129782806</v>
       </c>
       <c r="E11" t="n">
-        <v>239.1844414298595</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>269.7464768811127</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>78.22486177202258</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4950400750107</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>226.9851720360667</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4920100136513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>222.5269631286052</v>
+        <v>222.5269631286053</v>
       </c>
       <c r="D14" t="n">
-        <v>211.9371129782807</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>239.1844414298595</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>68.04769262841242</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>42.67718050556118</v>
       </c>
       <c r="V14" t="n">
-        <v>185.0063298277326</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>206.4950400750107</v>
       </c>
       <c r="X14" t="n">
-        <v>147.2616424390378</v>
+        <v>226.9851720360668</v>
       </c>
       <c r="Y14" t="n">
         <v>243.4920100136513</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>105.3700223165472</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.220281913971974</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>89.10555695396873</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>29.53289369588706</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>106.1643258175151</v>
       </c>
       <c r="W17" t="n">
-        <v>127.653036064793</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>114.3846077314872</v>
       </c>
       <c r="C20" t="n">
-        <v>143.6849591183875</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>89.10555695396873</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>29.53289369588706</v>
       </c>
       <c r="V20" t="n">
-        <v>89.33809926295287</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.846257060213247e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>687784.8160727388</v>
+        <v>687784.8160727386</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>687784.8160727386</v>
+        <v>687784.8160727387</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>762621.2761256587</v>
+        <v>762621.2761256583</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>762621.2761256585</v>
+        <v>762621.2761256583</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795006.9313352794</v>
+        <v>795006.9313352796</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897636.612300522</v>
+        <v>897636.6123005222</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897636.612300522</v>
+        <v>897636.6123005222</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>829488.5876175384</v>
+        <v>829488.5876175385</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>829488.5876175385</v>
+        <v>829488.5876175386</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>829488.5876175384</v>
+        <v>829488.5876175386</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>829488.5876175384</v>
+        <v>829488.5876175386</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>675902.9794415572</v>
+      </c>
+      <c r="C2" t="n">
+        <v>675902.9794415567</v>
+      </c>
+      <c r="D2" t="n">
         <v>675902.9794415568</v>
       </c>
-      <c r="C2" t="n">
-        <v>675902.9794415568</v>
-      </c>
-      <c r="D2" t="n">
-        <v>675902.979441557</v>
-      </c>
       <c r="E2" t="n">
-        <v>595310.8039550402</v>
+        <v>595310.8039550404</v>
       </c>
       <c r="F2" t="n">
-        <v>595310.8039550402</v>
+        <v>595310.8039550397</v>
       </c>
       <c r="G2" t="n">
-        <v>662056.8358941313</v>
+        <v>662056.835894131</v>
       </c>
       <c r="H2" t="n">
         <v>662056.8358941311</v>
       </c>
       <c r="I2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="J2" t="n">
+        <v>677359.4601380328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>677359.4601380328</v>
+      </c>
+      <c r="L2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="K2" t="n">
-        <v>677359.4601380326</v>
-      </c>
-      <c r="L2" t="n">
-        <v>677359.4601380326</v>
-      </c>
       <c r="M2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="N2" t="n">
         <v>677359.4601380341</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380343</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380341</v>
       </c>
     </row>
     <row r="3">
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63073.60320817418</v>
+        <v>63073.60320817404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15967.25538750373</v>
+        <v>15967.25538750388</v>
       </c>
       <c r="J3" t="n">
-        <v>130412.6889307354</v>
+        <v>130412.6889307353</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63073.60320817418</v>
+        <v>63073.60320817405</v>
       </c>
       <c r="M3" t="n">
-        <v>81062.19950072619</v>
+        <v>81062.1995007262</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
-        <v>168918.2807275038</v>
+        <v>168918.2807275039</v>
       </c>
       <c r="F4" t="n">
         <v>168918.2807275038</v>
       </c>
       <c r="G4" t="n">
-        <v>215095.7806737527</v>
+        <v>215095.7806737525</v>
       </c>
       <c r="H4" t="n">
-        <v>215095.7806737527</v>
+        <v>215095.7806737525</v>
       </c>
       <c r="I4" t="n">
         <v>224728.1770266654</v>
@@ -26448,7 +26448,7 @@
         <v>218488.3323051133</v>
       </c>
       <c r="M4" t="n">
-        <v>222566.7478810747</v>
+        <v>222566.7478810748</v>
       </c>
       <c r="N4" t="n">
         <v>222566.7478810748</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49278.62047697522</v>
+        <v>49278.62047697521</v>
       </c>
       <c r="F5" t="n">
-        <v>49278.62047697522</v>
+        <v>49278.62047697521</v>
       </c>
       <c r="G5" t="n">
-        <v>55906.7889121102</v>
+        <v>55906.78891211019</v>
       </c>
       <c r="H5" t="n">
-        <v>55906.7889121102</v>
+        <v>55906.78891211019</v>
       </c>
       <c r="I5" t="n">
-        <v>59557.53152950494</v>
+        <v>59557.53152950497</v>
       </c>
       <c r="J5" t="n">
-        <v>77861.90965088298</v>
+        <v>77861.909650883</v>
       </c>
       <c r="K5" t="n">
         <v>77861.909650883</v>
@@ -26500,16 +26500,16 @@
         <v>77861.909650883</v>
       </c>
       <c r="M5" t="n">
-        <v>64342.04701878659</v>
+        <v>64342.0470187866</v>
       </c>
       <c r="N5" t="n">
-        <v>64342.0470187866</v>
+        <v>64342.04701878662</v>
       </c>
       <c r="O5" t="n">
-        <v>64342.04701878659</v>
+        <v>64342.04701878662</v>
       </c>
       <c r="P5" t="n">
-        <v>64342.04701878657</v>
+        <v>64342.04701878662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184500.0186160194</v>
+        <v>184495.6050381516</v>
       </c>
       <c r="C6" t="n">
-        <v>184500.0186160194</v>
+        <v>184495.6050381511</v>
       </c>
       <c r="D6" t="n">
-        <v>184500.0186160195</v>
+        <v>184495.6050381513</v>
       </c>
       <c r="E6" t="n">
-        <v>-406944.4369643462</v>
+        <v>-407193.0692558096</v>
       </c>
       <c r="F6" t="n">
-        <v>377113.9027505611</v>
+        <v>376865.2704590971</v>
       </c>
       <c r="G6" t="n">
-        <v>327980.6631000942</v>
+        <v>327934.2915114763</v>
       </c>
       <c r="H6" t="n">
-        <v>391054.2663082682</v>
+        <v>391007.8947196504</v>
       </c>
       <c r="I6" t="n">
-        <v>377106.4961943598</v>
+        <v>377106.4961943596</v>
       </c>
       <c r="J6" t="n">
-        <v>250596.5292513016</v>
+        <v>250596.5292513012</v>
       </c>
       <c r="K6" t="n">
-        <v>381009.2181820362</v>
+        <v>381009.2181820365</v>
       </c>
       <c r="L6" t="n">
-        <v>317935.614973862</v>
+        <v>317935.6149738631</v>
       </c>
       <c r="M6" t="n">
         <v>309388.4657374466</v>
       </c>
       <c r="N6" t="n">
-        <v>390450.6652381725</v>
+        <v>390450.6652381726</v>
       </c>
       <c r="O6" t="n">
-        <v>390450.6652381722</v>
+        <v>390450.6652381729</v>
       </c>
       <c r="P6" t="n">
-        <v>390450.6652381729</v>
+        <v>390450.6652381727</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>142.7459286424023</v>
       </c>
       <c r="G2" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="H2" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="I2" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="J2" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="K2" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="M2" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="N2" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="O2" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="3">
@@ -26759,7 +26759,7 @@
         <v>699.0700829154817</v>
       </c>
       <c r="J3" t="n">
-        <v>699.0700829154816</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="K3" t="n">
         <v>699.0700829154817</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970327</v>
       </c>
       <c r="F4" t="n">
         <v>362.4734406970329</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4734406970326</v>
+        <v>362.4734406970327</v>
       </c>
       <c r="H4" t="n">
-        <v>362.4734406970326</v>
+        <v>362.4734406970327</v>
       </c>
       <c r="I4" t="n">
-        <v>422.5185495357619</v>
+        <v>422.5185495357626</v>
       </c>
       <c r="J4" t="n">
-        <v>920.9541678978701</v>
+        <v>920.9541678978703</v>
       </c>
       <c r="K4" t="n">
-        <v>920.9541678978701</v>
+        <v>920.9541678978703</v>
       </c>
       <c r="L4" t="n">
-        <v>920.9541678978701</v>
+        <v>920.9541678978704</v>
       </c>
       <c r="M4" t="n">
-        <v>558.4807272008374</v>
+        <v>558.4807272008376</v>
       </c>
       <c r="N4" t="n">
-        <v>558.4807272008374</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="O4" t="n">
-        <v>558.4807272008372</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="P4" t="n">
-        <v>558.480727200837</v>
+        <v>558.4807272008378</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.84200401021772</v>
+        <v>78.84200401021755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021772</v>
+        <v>78.84200401021756</v>
       </c>
       <c r="M2" t="n">
         <v>101.3277493759077</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970327</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.04510883872928</v>
+        <v>60.04510883872985</v>
       </c>
       <c r="J4" t="n">
-        <v>498.4356183621082</v>
+        <v>498.4356183621077</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021772</v>
+        <v>78.84200401021755</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,13 +28169,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>30.31439445809713</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>142.7459286424023</v>
       </c>
       <c r="E12" t="n">
-        <v>142.7459286424023</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>142.7459286424023</v>
@@ -28187,7 +28187,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>128.6354433100084</v>
+      </c>
+      <c r="X12" t="n">
         <v>142.7459286424023</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>142.7459286424023</v>
-      </c>
-      <c r="W12" t="n">
-        <v>142.7459286424023</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C13" t="n">
         <v>142.7459286424023</v>
@@ -28266,7 +28266,7 @@
         <v>142.7459286424023</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J13" t="n">
         <v>4.233474627595712</v>
@@ -28296,16 +28296,16 @@
         <v>120.611413834547</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7459286424023</v>
+        <v>67.1503436876061</v>
       </c>
       <c r="T13" t="n">
         <v>142.7459286424023</v>
       </c>
       <c r="U13" t="n">
-        <v>41.94466318091452</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>142.7459286424023</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>142.7459286424023</v>
@@ -28403,58 +28403,58 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.60931972104378</v>
+      </c>
+      <c r="H15" t="n">
+        <v>97.71325251404465</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.799003079515174</v>
+      </c>
+      <c r="S15" t="n">
         <v>142.7459286424023</v>
-      </c>
-      <c r="C15" t="n">
-        <v>90.40177026116544</v>
-      </c>
-      <c r="D15" t="n">
-        <v>142.7459286424023</v>
-      </c>
-      <c r="E15" t="n">
-        <v>142.7459286424023</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>135.8398569848641</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>37.62587671097609</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>142.7459286424023</v>
@@ -28466,13 +28466,13 @@
         <v>142.7459286424023</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
     </row>
     <row r="16">
@@ -28494,13 +28494,13 @@
         <v>142.7459286424023</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>67.15034368760662</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.7459286424023</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>117.5402481357105</v>
@@ -28533,7 +28533,7 @@
         <v>120.611413834547</v>
       </c>
       <c r="S16" t="n">
-        <v>67.15034368760655</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T16" t="n">
         <v>142.7459286424023</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="C17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="D17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="E17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="F17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="G17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="H17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="I17" t="n">
         <v>102.1305654634748</v>
@@ -28618,19 +28618,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="X17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
     </row>
     <row r="18">
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.8398569848641</v>
       </c>
       <c r="H18" t="n">
-        <v>97.71325251404465</v>
+        <v>20.7749986498665</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>143.7533427911297</v>
@@ -28697,13 +28697,13 @@
         <v>194.10392297596</v>
       </c>
       <c r="U18" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V18" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W18" t="n">
-        <v>98.95783216066664</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28770,25 +28770,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S19" t="n">
-        <v>202.0474611689562</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V19" t="n">
-        <v>66.66543546713808</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>34.53980490016556</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="C20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="D20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="E20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="F20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="G20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="H20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="I20" t="n">
         <v>102.1305654634748</v>
@@ -28855,19 +28855,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="X20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
     </row>
     <row r="21">
@@ -28934,10 +28934,10 @@
         <v>194.10392297596</v>
       </c>
       <c r="U21" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V21" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W21" t="n">
         <v>61.33195544969058</v>
@@ -28959,19 +28959,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.0835556843542</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>126.8341737787588</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H22" t="n">
         <v>151.0191308502045</v>
@@ -29010,19 +29010,19 @@
         <v>202.0474611689562</v>
       </c>
       <c r="T22" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="C23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="D23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="E23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="F23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="G23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="H23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="I23" t="n">
         <v>102.1305654634748</v>
@@ -29092,19 +29092,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="X23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
     </row>
     <row r="24">
@@ -29123,10 +29123,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>126.4155499802062</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.8398569848641</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>143.7533427911297</v>
@@ -29171,10 +29171,10 @@
         <v>194.10392297596</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>56.69583280048261</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29196,22 +29196,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I25" t="n">
         <v>117.5402481357105</v>
@@ -29247,19 +29247,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.9717215913071</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W25" t="n">
-        <v>221.58793265262</v>
+        <v>37.02662427821491</v>
       </c>
       <c r="X25" t="n">
-        <v>221.58793265262</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="C26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="D26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="E26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="F26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="G26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="H26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="I26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="T26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="U26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="V26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="W26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="X26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="C28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="D28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="E28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="F28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="G28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="H28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="I28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="J28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="K28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="L28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021957</v>
       </c>
       <c r="N28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="O28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="P28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="R28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="S28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="T28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="U28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="V28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="W28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="X28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021752</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="C29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="D29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="E29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="F29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="G29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="H29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="I29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="T29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="U29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="V29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="W29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="X29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="C31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="D31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="E31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="F31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="G31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="H31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="I31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="J31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="K31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021806</v>
       </c>
       <c r="L31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="N31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="O31" t="n">
-        <v>78.84200401021607</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="P31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="R31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="S31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="T31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="U31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="V31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="W31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="X31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021758</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="C32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="D32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="E32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="F32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="G32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="H32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="I32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="T32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="U32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="V32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="W32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="X32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="C34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="D34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="E34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="F34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="G34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="H34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="I34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="J34" t="n">
-        <v>78.84200401021617</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="K34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="L34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="N34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="O34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="P34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="R34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="S34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="T34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="U34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="V34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="W34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="X34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.84200401021766</v>
+        <v>78.84200401021759</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I35" t="n">
         <v>102.1305654634748</v>
@@ -30037,22 +30037,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>135.8398569848641</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30113,10 +30113,10 @@
         <v>6.799003079515174</v>
       </c>
       <c r="S36" t="n">
-        <v>143.7533427911297</v>
+        <v>119.3258857690301</v>
       </c>
       <c r="T36" t="n">
-        <v>73.28579549194568</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.4801738838437</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.7303611761521</v>
@@ -30192,25 +30192,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S37" t="n">
-        <v>180.1697533861254</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W37" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X37" t="n">
-        <v>180.1697533861254</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.5666524512254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I38" t="n">
         <v>102.1305654634748</v>
@@ -30274,22 +30274,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y38" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="39">
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>88.49901213756985</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>37.62587671097609</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,13 +30350,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>35.75490217019822</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30381,13 +30381,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S40" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="T40" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U40" t="n">
-        <v>180.1697533861255</v>
+        <v>92.15358376435378</v>
       </c>
       <c r="V40" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W40" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X40" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.34072531229435</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I41" t="n">
         <v>102.1305654634748</v>
@@ -30511,22 +30511,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="42">
@@ -30548,13 +30548,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>126.1248888485442</v>
       </c>
       <c r="G42" t="n">
-        <v>28.95589909068502</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>180.1697533861255</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30621,19 +30621,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>117.5402481357105</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>120.611413834547</v>
+        <v>1.084424586923745</v>
       </c>
       <c r="S43" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="T43" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X43" t="n">
-        <v>140.1629946192334</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="C44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="D44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="E44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="F44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="G44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="H44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="I44" t="n">
         <v>102.1305654634748</v>
@@ -30748,22 +30748,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
     </row>
     <row r="45">
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>73.7865232517907</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>97.71325251404465</v>
       </c>
       <c r="I45" t="n">
-        <v>37.62587671097609</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.799003079515174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>143.7533427911297</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>118.2114030422785</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7303611761521</v>
+        <v>111.2813865459316</v>
       </c>
       <c r="H46" t="n">
         <v>151.0191308502045</v>
@@ -30903,22 +30903,22 @@
         <v>120.611413834547</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U46" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W46" t="n">
-        <v>180.1697533861255</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="X46" t="n">
-        <v>140.1629946192331</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.810331991620024</v>
+        <v>2.810331991620025</v>
       </c>
       <c r="H26" t="n">
-        <v>28.78131250917858</v>
+        <v>28.78131250917859</v>
       </c>
       <c r="I26" t="n">
         <v>108.3453241069311</v>
@@ -32950,13 +32950,13 @@
         <v>357.484768079036</v>
       </c>
       <c r="L26" t="n">
-        <v>443.4914657675774</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M26" t="n">
-        <v>493.46970732355</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N26" t="n">
-        <v>501.4545630947404</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O26" t="n">
         <v>473.5093243530688</v>
@@ -32965,19 +32965,19 @@
         <v>404.1292533099494</v>
       </c>
       <c r="Q26" t="n">
-        <v>303.4842388600571</v>
+        <v>303.4842388600572</v>
       </c>
       <c r="R26" t="n">
-        <v>176.5345169686015</v>
+        <v>176.5345169686016</v>
       </c>
       <c r="S26" t="n">
-        <v>64.04044025904138</v>
+        <v>64.04044025904139</v>
       </c>
       <c r="T26" t="n">
-        <v>12.30222829331666</v>
+        <v>12.30222829331667</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2248265593296019</v>
+        <v>0.224826559329602</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33029,13 +33029,13 @@
         <v>242.8081437990499</v>
       </c>
       <c r="L27" t="n">
-        <v>326.4855137238766</v>
+        <v>326.4855137238767</v>
       </c>
       <c r="M27" t="n">
-        <v>380.9931951889374</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N27" t="n">
-        <v>391.0769513849542</v>
+        <v>391.0769513849543</v>
       </c>
       <c r="O27" t="n">
         <v>357.7590074331711</v>
@@ -33047,16 +33047,16 @@
         <v>191.9409027657753</v>
       </c>
       <c r="R27" t="n">
-        <v>93.35883107312794</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S27" t="n">
-        <v>27.92982831270814</v>
+        <v>27.92982831270815</v>
       </c>
       <c r="T27" t="n">
-        <v>6.060805718861579</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09892501173332291</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I28" t="n">
-        <v>37.91022679154776</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J28" t="n">
-        <v>89.12570548907705</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K28" t="n">
         <v>146.4609124534402</v>
@@ -33111,7 +33111,7 @@
         <v>187.4195432131113</v>
       </c>
       <c r="M28" t="n">
-        <v>197.6076301592073</v>
+        <v>197.6076301592074</v>
       </c>
       <c r="N28" t="n">
         <v>192.908962388792</v>
@@ -33132,10 +33132,10 @@
         <v>21.96913686801603</v>
       </c>
       <c r="T28" t="n">
-        <v>5.386277688037316</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06876099176217859</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.22528518316722</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K12" t="n">
         <v>104.9667048246909</v>
@@ -35507,7 +35507,7 @@
         <v>153.1587366420306</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.2093470936589</v>
+        <v>134.1183117532497</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>104.9667048246909</v>
       </c>
       <c r="L15" t="n">
-        <v>187.9311339440025</v>
+        <v>362.4734406970329</v>
       </c>
       <c r="M15" t="n">
-        <v>238.8591612669192</v>
+        <v>272.567072927794</v>
       </c>
       <c r="N15" t="n">
         <v>259.7352393016209</v>
       </c>
       <c r="O15" t="n">
-        <v>362.4734406970329</v>
+        <v>215.1627629887267</v>
       </c>
       <c r="P15" t="n">
         <v>153.1587366420306</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.8986693853527</v>
+        <v>51.9591286797538</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>172.8962575546799</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.17854898560753</v>
+        <v>81.17854898560799</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>15.22528518316722</v>
       </c>
       <c r="K18" t="n">
-        <v>104.9667048246909</v>
+        <v>313.2169232385955</v>
       </c>
       <c r="L18" t="n">
         <v>187.9311339440025</v>
@@ -35981,7 +35981,7 @@
         <v>153.1587366420306</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.209347093658</v>
+        <v>51.9591286797538</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>207.7250507975903</v>
       </c>
       <c r="M20" t="n">
-        <v>263.1234740962771</v>
+        <v>263.1234740962774</v>
       </c>
       <c r="N20" t="n">
         <v>272.0414994981496</v>
@@ -36136,7 +36136,7 @@
         <v>243.4111129313821</v>
       </c>
       <c r="P20" t="n">
-        <v>172.8962575546799</v>
+        <v>172.89625755468</v>
       </c>
       <c r="Q20" t="n">
         <v>81.1785489856077</v>
@@ -36200,10 +36200,10 @@
         <v>15.22528518316722</v>
       </c>
       <c r="K21" t="n">
-        <v>104.9667048246909</v>
+        <v>138.6746164855653</v>
       </c>
       <c r="L21" t="n">
-        <v>187.9311339440025</v>
+        <v>362.4734406970327</v>
       </c>
       <c r="M21" t="n">
         <v>238.8591612669192</v>
@@ -36218,7 +36218,7 @@
         <v>153.1587366420306</v>
       </c>
       <c r="Q21" t="n">
-        <v>260.209347093658</v>
+        <v>51.9591286797538</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>243.4111129313821</v>
       </c>
       <c r="P23" t="n">
-        <v>383.9852288785597</v>
+        <v>410.6506279060143</v>
       </c>
       <c r="Q23" t="n">
         <v>81.1785489856077</v>
       </c>
       <c r="R23" t="n">
-        <v>26.66539902745188</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>15.22528518316722</v>
       </c>
       <c r="K24" t="n">
-        <v>340.894005854078</v>
+        <v>104.9667048246909</v>
       </c>
       <c r="L24" t="n">
         <v>187.9311339440025</v>
@@ -36452,10 +36452,10 @@
         <v>215.1627629887267</v>
       </c>
       <c r="P24" t="n">
-        <v>153.1587366420306</v>
+        <v>422.5185495357626</v>
       </c>
       <c r="Q24" t="n">
-        <v>262.0364164156029</v>
+        <v>228.6039045512605</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K26" t="n">
-        <v>314.3555624845247</v>
+        <v>461.5403296052202</v>
       </c>
       <c r="L26" t="n">
-        <v>625.3862653480405</v>
+        <v>625.3862653480408</v>
       </c>
       <c r="M26" t="n">
-        <v>712.6370075891098</v>
+        <v>712.6370075891099</v>
       </c>
       <c r="N26" t="n">
         <v>709.3884239101337</v>
       </c>
       <c r="O26" t="n">
-        <v>243.4111129313821</v>
+        <v>624.2112941941275</v>
       </c>
       <c r="P26" t="n">
-        <v>494.6949657261625</v>
+        <v>172.8962575546799</v>
       </c>
       <c r="Q26" t="n">
-        <v>293.4935396455123</v>
+        <v>113.9726984610064</v>
       </c>
       <c r="R26" t="n">
-        <v>26.66539902745185</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>141.316320523576</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K27" t="n">
         <v>369.4319418372695</v>
@@ -36680,19 +36680,19 @@
         <v>558.7714792474617</v>
       </c>
       <c r="M27" t="n">
-        <v>300.2632839685785</v>
+        <v>300.2632839685788</v>
       </c>
       <c r="N27" t="n">
         <v>259.7352393016209</v>
       </c>
       <c r="O27" t="n">
-        <v>215.1627629887266</v>
+        <v>215.1627629887267</v>
       </c>
       <c r="P27" t="n">
-        <v>471.6215052819677</v>
+        <v>471.6215052819678</v>
       </c>
       <c r="Q27" t="n">
-        <v>262.0364164156028</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.60852938262194</v>
+        <v>74.60852938262181</v>
       </c>
       <c r="K28" t="n">
-        <v>203.033424637775</v>
+        <v>203.0334246377749</v>
       </c>
       <c r="L28" t="n">
-        <v>293.8515724836451</v>
+        <v>293.851572483645</v>
       </c>
       <c r="M28" t="n">
-        <v>316.0335111312656</v>
+        <v>316.0335111312675</v>
       </c>
       <c r="N28" t="n">
-        <v>315.8831387782382</v>
+        <v>315.8831387782381</v>
       </c>
       <c r="O28" t="n">
-        <v>281.6097819106493</v>
+        <v>281.6097819106492</v>
       </c>
       <c r="P28" t="n">
-        <v>228.5866023424483</v>
+        <v>228.5866023424481</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.239543278761</v>
+        <v>98.23954327876088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K29" t="n">
-        <v>461.5403296052202</v>
+        <v>314.3555624845254</v>
       </c>
       <c r="L29" t="n">
         <v>625.3862653480408</v>
       </c>
       <c r="M29" t="n">
-        <v>621.9989836176529</v>
+        <v>712.6370075891099</v>
       </c>
       <c r="N29" t="n">
-        <v>272.0414994981496</v>
+        <v>709.3884239101337</v>
       </c>
       <c r="O29" t="n">
-        <v>624.2112941941275</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P29" t="n">
         <v>494.6949657261625</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>141.3163205235761</v>
+        <v>15.22528518316722</v>
       </c>
       <c r="K30" t="n">
         <v>369.4319418372695</v>
       </c>
       <c r="L30" t="n">
-        <v>558.7714792474617</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M30" t="n">
-        <v>300.2632839685783</v>
+        <v>704.5642250169191</v>
       </c>
       <c r="N30" t="n">
         <v>259.7352393016209</v>
       </c>
       <c r="O30" t="n">
-        <v>215.1627629887267</v>
+        <v>517.8704903201029</v>
       </c>
       <c r="P30" t="n">
         <v>471.6215052819678</v>
       </c>
       <c r="Q30" t="n">
-        <v>262.0364164156029</v>
+        <v>51.9591286797538</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.60852938262195</v>
+        <v>74.60852938262187</v>
       </c>
       <c r="K31" t="n">
-        <v>203.033424637775</v>
+        <v>203.0334246377754</v>
       </c>
       <c r="L31" t="n">
-        <v>293.8515724836451</v>
+        <v>293.851572483645</v>
       </c>
       <c r="M31" t="n">
-        <v>316.0335111312656</v>
+        <v>316.0335111312655</v>
       </c>
       <c r="N31" t="n">
-        <v>315.8831387782383</v>
+        <v>315.8831387782382</v>
       </c>
       <c r="O31" t="n">
-        <v>281.6097819106478</v>
+        <v>281.6097819106493</v>
       </c>
       <c r="P31" t="n">
-        <v>228.5866023424483</v>
+        <v>228.5866023424482</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.23954327876102</v>
+        <v>98.23954327876093</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K32" t="n">
-        <v>314.3555624845245</v>
+        <v>409.7343137420646</v>
       </c>
       <c r="L32" t="n">
         <v>625.3862653480408</v>
       </c>
       <c r="M32" t="n">
-        <v>712.6370075891099</v>
+        <v>263.1234740962774</v>
       </c>
       <c r="N32" t="n">
         <v>709.3884239101337</v>
       </c>
       <c r="O32" t="n">
-        <v>243.4111129313821</v>
+        <v>624.2112941941275</v>
       </c>
       <c r="P32" t="n">
         <v>494.6949657261625</v>
@@ -37090,7 +37090,7 @@
         <v>293.4935396455124</v>
       </c>
       <c r="R32" t="n">
-        <v>26.66539902745188</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>558.7714792474617</v>
       </c>
       <c r="M33" t="n">
-        <v>300.2632839685783</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N33" t="n">
         <v>259.7352393016209</v>
       </c>
       <c r="O33" t="n">
-        <v>215.1627629887267</v>
+        <v>276.5668856903862</v>
       </c>
       <c r="P33" t="n">
         <v>471.6215052819678</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.60852938262046</v>
+        <v>74.60852938262188</v>
       </c>
       <c r="K34" t="n">
-        <v>203.033424637775</v>
+        <v>203.0334246377749</v>
       </c>
       <c r="L34" t="n">
-        <v>293.8515724836451</v>
+        <v>293.851572483645</v>
       </c>
       <c r="M34" t="n">
-        <v>316.0335111312656</v>
+        <v>316.0335111312655</v>
       </c>
       <c r="N34" t="n">
-        <v>315.8831387782383</v>
+        <v>315.8831387782382</v>
       </c>
       <c r="O34" t="n">
-        <v>281.6097819106494</v>
+        <v>281.6097819106493</v>
       </c>
       <c r="P34" t="n">
-        <v>228.5866023424483</v>
+        <v>228.5866023424482</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.23954327876102</v>
+        <v>98.23954327876095</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>57.47751034707403</v>
+        <v>170.0534485705176</v>
       </c>
       <c r="K35" t="n">
         <v>137.3949170340555</v>
       </c>
       <c r="L35" t="n">
-        <v>375.372830654723</v>
+        <v>207.7250507975903</v>
       </c>
       <c r="M35" t="n">
-        <v>558.4807272008374</v>
+        <v>263.1234740962774</v>
       </c>
       <c r="N35" t="n">
-        <v>558.4807272008374</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O35" t="n">
-        <v>243.4111129313821</v>
+        <v>558.4807272008376</v>
       </c>
       <c r="P35" t="n">
-        <v>172.8962575546799</v>
+        <v>494.6949657261625</v>
       </c>
       <c r="Q35" t="n">
         <v>81.1785489856077</v>
@@ -37388,22 +37388,22 @@
         <v>369.4319418372695</v>
       </c>
       <c r="L36" t="n">
-        <v>187.9311339440025</v>
+        <v>253.1946833209668</v>
       </c>
       <c r="M36" t="n">
-        <v>533.9172791204521</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N36" t="n">
-        <v>558.4807272008374</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O36" t="n">
         <v>215.1627629887267</v>
       </c>
       <c r="P36" t="n">
-        <v>153.1587366420306</v>
+        <v>471.6215052819678</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.9591286797538</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K38" t="n">
-        <v>183.628863694975</v>
+        <v>210.2942627224287</v>
       </c>
       <c r="L38" t="n">
         <v>207.7250507975903</v>
@@ -37564,7 +37564,7 @@
         <v>293.4935396455124</v>
       </c>
       <c r="R38" t="n">
-        <v>26.66539902745188</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>259.7352393016209</v>
       </c>
       <c r="O39" t="n">
-        <v>280.4263123656901</v>
+        <v>280.426312365692</v>
       </c>
       <c r="P39" t="n">
         <v>471.6215052819678</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>57.47751034707403</v>
+        <v>226.5741255191478</v>
       </c>
       <c r="K41" t="n">
-        <v>461.5403296052202</v>
+        <v>137.3949170340555</v>
       </c>
       <c r="L41" t="n">
-        <v>207.7250507975903</v>
+        <v>499.6684810478951</v>
       </c>
       <c r="M41" t="n">
         <v>263.1234740962774</v>
@@ -37792,10 +37792,10 @@
         <v>272.0414994981496</v>
       </c>
       <c r="O41" t="n">
-        <v>373.5766518805671</v>
+        <v>558.4807272008378</v>
       </c>
       <c r="P41" t="n">
-        <v>494.6949657261625</v>
+        <v>172.8962575546799</v>
       </c>
       <c r="Q41" t="n">
         <v>81.1785489856077</v>
@@ -37859,10 +37859,10 @@
         <v>141.3163205235761</v>
       </c>
       <c r="K42" t="n">
-        <v>104.9667048246909</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L42" t="n">
-        <v>558.4807272008372</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M42" t="n">
         <v>238.8591612669192</v>
@@ -37871,13 +37871,13 @@
         <v>259.7352393016209</v>
       </c>
       <c r="O42" t="n">
-        <v>215.1627629887267</v>
+        <v>280.426312365692</v>
       </c>
       <c r="P42" t="n">
         <v>471.6215052819678</v>
       </c>
       <c r="Q42" t="n">
-        <v>221.2156095483096</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0703187618965</v>
+        <v>461.5403296052202</v>
       </c>
       <c r="L44" t="n">
         <v>207.7250507975903</v>
       </c>
       <c r="M44" t="n">
-        <v>558.480727200837</v>
+        <v>263.1234740962774</v>
       </c>
       <c r="N44" t="n">
         <v>272.0414994981496</v>
@@ -38032,13 +38032,13 @@
         <v>243.4111129313821</v>
       </c>
       <c r="P44" t="n">
-        <v>172.8962575546799</v>
+        <v>243.4488988433709</v>
       </c>
       <c r="Q44" t="n">
         <v>293.4935396455124</v>
       </c>
       <c r="R44" t="n">
-        <v>26.66539902745188</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>187.9311339440025</v>
       </c>
       <c r="M45" t="n">
-        <v>304.1227106438811</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N45" t="n">
         <v>259.7352393016209</v>
       </c>
       <c r="O45" t="n">
-        <v>215.1627629887267</v>
+        <v>280.426312365692</v>
       </c>
       <c r="P45" t="n">
         <v>471.6215052819678</v>
